--- a/Data_Dictionary_Master.xlsx
+++ b/Data_Dictionary_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bob/Documents/Rubicon/Agency_Portal/Agency_Portal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD27CAE-3C6A-514F-B49E-E402EAEB5DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7047B40B-5561-484B-B38E-E91EAB0F855B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33380" windowHeight="19860" xr2:uid="{87535C05-C3F8-5942-A801-69EB535B5E31}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="2620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="2620">
   <si>
     <t>Agency</t>
   </si>
@@ -9022,8 +9022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A428CB34-FA7F-C544-A9C4-38FF1DBA03B6}">
   <dimension ref="A1:M1736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1097" workbookViewId="0">
-      <selection activeCell="E1117" sqref="E1117:F1244"/>
+    <sheetView tabSelected="1" topLeftCell="G1099" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J1117" sqref="J1117:J1244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9038,6 +9038,7 @@
     <col min="8" max="8" width="60.33203125" customWidth="1"/>
     <col min="9" max="9" width="82.83203125" customWidth="1"/>
     <col min="10" max="10" width="56" customWidth="1"/>
+    <col min="11" max="11" width="66.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -26190,11 +26191,11 @@
         <v>1152</v>
       </c>
       <c r="I1100" t="str">
-        <f t="shared" ref="I1100:I1116" si="17">_xlfn.CONCAT($H$1,H1100,$I$1,H1100,$J$1)</f>
+        <f t="shared" ref="I1100:I1163" si="17">_xlfn.CONCAT($H$1,H1100,$I$1,H1100,$J$1)</f>
         <v>var cr9aa_newpartstiernonetheabove = $("#cr9aa_newpartstiernonetheabove").val();</v>
       </c>
       <c r="J1100" t="str">
-        <f t="shared" ref="J1100:J1116" si="18">_xlfn.CONCAT($L$1,H1100,$K$1,H1100,"),")</f>
+        <f t="shared" ref="J1100:J1163" si="18">_xlfn.CONCAT($L$1,H1100,$K$1,H1100,"),")</f>
         <v>"cr9aa_newpartstiernonetheabove": Number(cr9aa_newpartstiernonetheabove),</v>
       </c>
     </row>
@@ -26286,7 +26287,7 @@
         <v>"cr9aa_goalswomennumcompletedatleast1goal": Number(cr9aa_goalswomennumcompletedatleast1goal),</v>
       </c>
     </row>
-    <row r="1105" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1105">
         <v>38</v>
       </c>
@@ -26308,7 +26309,7 @@
         <v>"cr9aa_goalswomennumcompletedatleast2goals": Number(cr9aa_goalswomennumcompletedatleast2goals),</v>
       </c>
     </row>
-    <row r="1106" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1106">
         <v>39</v>
       </c>
@@ -26330,7 +26331,7 @@
         <v>"cr9aa_goalswomennumcompletedatleast3goals": Number(cr9aa_goalswomennumcompletedatleast3goals),</v>
       </c>
     </row>
-    <row r="1107" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1107">
         <v>40</v>
       </c>
@@ -26352,7 +26353,7 @@
         <v>"cr9aa_goalswomennummatchedamentornavigator": Number(cr9aa_goalswomennummatchedamentornavigator),</v>
       </c>
     </row>
-    <row r="1108" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1108">
         <v>41</v>
       </c>
@@ -26376,7 +26377,7 @@
         <v>"cr9aa_svcsmennumrecneedsscreeningwhileincarc": Number(cr9aa_svcsmennumrecneedsscreeningwhileincarc),</v>
       </c>
     </row>
-    <row r="1109" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1109">
         <v>42</v>
       </c>
@@ -26398,7 +26399,7 @@
         <v>"cr9aa_svcsmennumrecreentryplanwhileincarc": Number(cr9aa_svcsmennumrecreentryplanwhileincarc),</v>
       </c>
     </row>
-    <row r="1110" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1110">
         <v>43</v>
       </c>
@@ -26420,7 +26421,7 @@
         <v>"cr9aa_svcsmennummatchedmentornavigator": Number(cr9aa_svcsmennummatchedmentornavigator),</v>
       </c>
     </row>
-    <row r="1111" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1111">
         <v>44</v>
       </c>
@@ -26444,7 +26445,7 @@
         <v>"cr9aa_outcomesnumsuccessfullycompletedprog": Number(cr9aa_outcomesnumsuccessfullycompletedprog),</v>
       </c>
     </row>
-    <row r="1112" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1112">
         <v>45</v>
       </c>
@@ -26468,7 +26469,7 @@
         <v>"cr9aa_outcomesnumunsucccompletedprog": Number(cr9aa_outcomesnumunsucccompletedprog),</v>
       </c>
     </row>
-    <row r="1113" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1113">
         <v>46</v>
       </c>
@@ -26492,7 +26493,7 @@
         <v>"cr9aa_outcomesnumnewslettersproduced": Number(cr9aa_outcomesnumnewslettersproduced),</v>
       </c>
     </row>
-    <row r="1114" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1114">
         <v>47</v>
       </c>
@@ -26516,7 +26517,7 @@
         <v>"cr9aa_outcomescompleteatleast1goal": Number(cr9aa_outcomescompleteatleast1goal),</v>
       </c>
     </row>
-    <row r="1115" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1115">
         <v>48</v>
       </c>
@@ -26540,7 +26541,7 @@
         <v>"cr9aa_nummentornavigatorstrained": Number(cr9aa_nummentornavigatorstrained),</v>
       </c>
     </row>
-    <row r="1116" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1116">
         <v>49</v>
       </c>
@@ -26562,2185 +26563,3947 @@
         <v>"cr9aa_averagenumbermenteesmentor": Number(cr9aa_averagenumbermenteesmentor),</v>
       </c>
     </row>
-    <row r="1117" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1117">
+        <v>54</v>
+      </c>
+      <c r="D1117" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F1117" s="2"/>
+      <c r="G1117">
+        <v>5</v>
+      </c>
+      <c r="H1117" s="26" t="s">
+        <v>2486</v>
+      </c>
+      <c r="I1117" t="str">
+        <f>_xlfn.CONCAT($H$1,H1117,$I$1,H1117,$J$1)</f>
+        <v>var crdae_administrativecoordinatorbudget = $("#crdae_administrativecoordinatorbudget").val();</v>
+      </c>
+      <c r="J1117" t="str">
+        <f>_xlfn.CONCAT($L$1,H1117,$K$1,H1117,"),")</f>
+        <v>"crdae_administrativecoordinatorbudget": Number(crdae_administrativecoordinatorbudget),</v>
+      </c>
+      <c r="L1117" s="31" t="str">
+        <f>_xlfn.CONCAT("&lt;td&gt;",$A$1,H1117,$C$1,H1117,$D$1,"&lt;/td&gt;")</f>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_administrativecoordinatorbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_administrativecoordinatorbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1118" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C1118">
+        <v>86</v>
+      </c>
+      <c r="D1118" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F1118" s="2"/>
+      <c r="G1118">
+        <v>37</v>
+      </c>
+      <c r="H1118" s="26" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I1118" t="str">
+        <f>_xlfn.CONCAT($H$1,H1118,$I$1,H1118,$J$1)</f>
+        <v>var crdae_administrativecoordinatorcurrent = $("#crdae_administrativecoordinatorcurrent").val();</v>
+      </c>
+      <c r="J1118" t="str">
+        <f>_xlfn.CONCAT($L$1,H1118,$K$1,H1118,"),")</f>
+        <v>"crdae_administrativecoordinatorcurrent": Number(crdae_administrativecoordinatorcurrent),</v>
+      </c>
+      <c r="L1118" s="31" t="str">
+        <f t="shared" ref="L1118:L1181" si="19">_xlfn.CONCAT("&lt;td&gt;",$A$1,H1118,$C$1,H1118,$D$1,"&lt;/td&gt;")</f>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_administrativecoordinatorcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_administrativecoordinatorcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1119" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C1119">
+        <v>150</v>
+      </c>
+      <c r="D1119" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F1119" s="2"/>
+      <c r="G1119">
+        <v>101</v>
+      </c>
+      <c r="H1119" s="26" t="s">
+        <v>2488</v>
+      </c>
+      <c r="I1119" t="str">
+        <f>_xlfn.CONCAT($H$1,H1119,$I$1,H1119,$J$1)</f>
+        <v>var crdae_administrativecoordinatorfurther = $("#crdae_administrativecoordinatorfurther").val();</v>
+      </c>
+      <c r="J1119" t="str">
+        <f>_xlfn.CONCAT($L$1,H1119,$K$1,H1119,"),")</f>
+        <v>"crdae_administrativecoordinatorfurther": Number(crdae_administrativecoordinatorfurther),</v>
+      </c>
+      <c r="L1119" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_administrativecoordinatorfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_administrativecoordinatorfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1120" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C1120">
+        <v>118</v>
+      </c>
+      <c r="D1120" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F1120" s="2"/>
+      <c r="G1120">
+        <v>69</v>
+      </c>
+      <c r="H1120" s="26" t="s">
+        <v>2489</v>
+      </c>
+      <c r="I1120" t="str">
+        <f>_xlfn.CONCAT($H$1,H1120,$I$1,H1120,$J$1)</f>
+        <v>var crdae_administrativecoordinatortotal = $("#crdae_administrativecoordinatortotal").val();</v>
+      </c>
+      <c r="J1120" t="str">
+        <f>_xlfn.CONCAT($L$1,H1120,$K$1,H1120,"),")</f>
+        <v>"crdae_administrativecoordinatortotal": Number(crdae_administrativecoordinatortotal),</v>
+      </c>
+      <c r="L1120" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_administrativecoordinatortotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_administrativecoordinatortotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C1121">
+        <v>71</v>
+      </c>
+      <c r="D1121" s="2" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F1121" s="2"/>
+      <c r="G1121">
+        <v>22</v>
+      </c>
+      <c r="H1121" s="26" t="s">
+        <v>2490</v>
+      </c>
+      <c r="I1121" t="str">
+        <f>_xlfn.CONCAT($H$1,H1121,$I$1,H1121,$J$1)</f>
+        <v>var crdae_auxiliaryfundsmiscbudget = $("#crdae_auxiliaryfundsmiscbudget").val();</v>
+      </c>
+      <c r="J1121" t="str">
+        <f>_xlfn.CONCAT($L$1,H1121,$K$1,H1121,"),")</f>
+        <v>"crdae_auxiliaryfundsmiscbudget": Number(crdae_auxiliaryfundsmiscbudget),</v>
+      </c>
+      <c r="L1121" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_auxiliaryfundsmiscbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_auxiliaryfundsmiscbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1122" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C1122">
+        <v>103</v>
+      </c>
+      <c r="D1122" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F1122" s="2"/>
+      <c r="G1122">
+        <v>54</v>
+      </c>
+      <c r="H1122" s="26" t="s">
+        <v>2534</v>
+      </c>
+      <c r="I1122" t="str">
+        <f>_xlfn.CONCAT($H$1,H1122,$I$1,H1122,$J$1)</f>
+        <v>var crdae_auxiliaryfundsmisccurrent = $("#crdae_auxiliaryfundsmisccurrent").val();</v>
+      </c>
+      <c r="J1122" t="str">
+        <f>_xlfn.CONCAT($L$1,H1122,$K$1,H1122,"),")</f>
+        <v>"crdae_auxiliaryfundsmisccurrent": Number(crdae_auxiliaryfundsmisccurrent),</v>
+      </c>
+      <c r="L1122" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_auxiliaryfundsmisccurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_auxiliaryfundsmisccurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1123" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C1123">
+        <v>167</v>
+      </c>
+      <c r="D1123" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="F1123" s="2"/>
+      <c r="G1123">
+        <v>118</v>
+      </c>
+      <c r="H1123" s="26" t="s">
+        <v>2535</v>
+      </c>
+      <c r="I1123" t="str">
+        <f>_xlfn.CONCAT($H$1,H1123,$I$1,H1123,$J$1)</f>
+        <v>var crdae_auxiliaryfundsmiscfurther = $("#crdae_auxiliaryfundsmiscfurther").val();</v>
+      </c>
+      <c r="J1123" t="str">
+        <f>_xlfn.CONCAT($L$1,H1123,$K$1,H1123,"),")</f>
+        <v>"crdae_auxiliaryfundsmiscfurther": Number(crdae_auxiliaryfundsmiscfurther),</v>
+      </c>
+      <c r="L1123" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_auxiliaryfundsmiscfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_auxiliaryfundsmiscfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1124" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C1124">
+        <v>135</v>
+      </c>
+      <c r="D1124" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F1124" s="2"/>
+      <c r="G1124">
+        <v>86</v>
+      </c>
+      <c r="H1124" s="26" t="s">
+        <v>2536</v>
+      </c>
+      <c r="I1124" t="str">
+        <f>_xlfn.CONCAT($H$1,H1124,$I$1,H1124,$J$1)</f>
+        <v>var crdae_auxiliaryfundsmisctotal = $("#crdae_auxiliaryfundsmisctotal").val();</v>
+      </c>
+      <c r="J1124" t="str">
+        <f>_xlfn.CONCAT($L$1,H1124,$K$1,H1124,"),")</f>
+        <v>"crdae_auxiliaryfundsmisctotal": Number(crdae_auxiliaryfundsmisctotal),</v>
+      </c>
+      <c r="L1124" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_auxiliaryfundsmisctotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_auxiliaryfundsmisctotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1125">
+        <v>61</v>
+      </c>
+      <c r="D1125" s="2" t="s">
+        <v>2321</v>
+      </c>
+      <c r="F1125" s="2"/>
+      <c r="G1125">
+        <v>12</v>
+      </c>
+      <c r="H1125" s="26" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I1125" t="str">
+        <f>_xlfn.CONCAT($H$1,H1125,$I$1,H1125,$J$1)</f>
+        <v>var crdae_cellphonesbudget = $("#crdae_cellphonesbudget").val();</v>
+      </c>
+      <c r="J1125" t="str">
+        <f>_xlfn.CONCAT($L$1,H1125,$K$1,H1125,"),")</f>
+        <v>"crdae_cellphonesbudget": Number(crdae_cellphonesbudget),</v>
+      </c>
+      <c r="L1125" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_cellphonesbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_cellphonesbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1126" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1126">
+        <v>93</v>
+      </c>
+      <c r="D1126" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F1126" s="2"/>
+      <c r="G1126">
+        <v>44</v>
+      </c>
+      <c r="H1126" s="26" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1126" t="str">
+        <f>_xlfn.CONCAT($H$1,H1126,$I$1,H1126,$J$1)</f>
+        <v>var crdae_cellphonescurrent = $("#crdae_cellphonescurrent").val();</v>
+      </c>
+      <c r="J1126" t="str">
+        <f>_xlfn.CONCAT($L$1,H1126,$K$1,H1126,"),")</f>
+        <v>"crdae_cellphonescurrent": Number(crdae_cellphonescurrent),</v>
+      </c>
+      <c r="L1126" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_cellphonescurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_cellphonescurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1127" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1127">
+        <v>157</v>
+      </c>
+      <c r="D1127" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1127" s="2"/>
+      <c r="G1127">
+        <v>108</v>
+      </c>
+      <c r="H1127" s="26" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I1127" t="str">
+        <f>_xlfn.CONCAT($H$1,H1127,$I$1,H1127,$J$1)</f>
+        <v>var crdae_cellphonesfurther = $("#crdae_cellphonesfurther").val();</v>
+      </c>
+      <c r="J1127" t="str">
+        <f>_xlfn.CONCAT($L$1,H1127,$K$1,H1127,"),")</f>
+        <v>"crdae_cellphonesfurther": Number(crdae_cellphonesfurther),</v>
+      </c>
+      <c r="L1127" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_cellphonesfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_cellphonesfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1128" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1128">
+        <v>125</v>
+      </c>
+      <c r="D1128" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F1128" s="2"/>
+      <c r="G1128">
+        <v>76</v>
+      </c>
+      <c r="H1128" s="26" t="s">
+        <v>2540</v>
+      </c>
+      <c r="I1128" t="str">
+        <f>_xlfn.CONCAT($H$1,H1128,$I$1,H1128,$J$1)</f>
+        <v>var crdae_cellphonestotal = $("#crdae_cellphonestotal").val();</v>
+      </c>
+      <c r="J1128" t="str">
+        <f>_xlfn.CONCAT($L$1,H1128,$K$1,H1128,"),")</f>
+        <v>"crdae_cellphonestotal": Number(crdae_cellphonestotal),</v>
+      </c>
+      <c r="L1128" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_cellphonestotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_cellphonestotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C1129">
+        <v>69</v>
+      </c>
+      <c r="D1129" s="2" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F1129" s="2"/>
+      <c r="G1129">
+        <v>20</v>
+      </c>
+      <c r="H1129" s="26" t="s">
+        <v>2541</v>
+      </c>
+      <c r="I1129" t="str">
+        <f>_xlfn.CONCAT($H$1,H1129,$I$1,H1129,$J$1)</f>
+        <v>var crdae_communityoutreacheventsbudget = $("#crdae_communityoutreacheventsbudget").val();</v>
+      </c>
+      <c r="J1129" t="str">
+        <f>_xlfn.CONCAT($L$1,H1129,$K$1,H1129,"),")</f>
+        <v>"crdae_communityoutreacheventsbudget": Number(crdae_communityoutreacheventsbudget),</v>
+      </c>
+      <c r="L1129" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_communityoutreacheventsbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_communityoutreacheventsbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1130" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C1130">
+        <v>101</v>
+      </c>
+      <c r="D1130" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="F1130" s="2"/>
+      <c r="G1130">
+        <v>52</v>
+      </c>
+      <c r="H1130" s="26" t="s">
+        <v>2542</v>
+      </c>
+      <c r="I1130" t="str">
+        <f>_xlfn.CONCAT($H$1,H1130,$I$1,H1130,$J$1)</f>
+        <v>var crdae_communityoutreacheventscurrent = $("#crdae_communityoutreacheventscurrent").val();</v>
+      </c>
+      <c r="J1130" t="str">
+        <f>_xlfn.CONCAT($L$1,H1130,$K$1,H1130,"),")</f>
+        <v>"crdae_communityoutreacheventscurrent": Number(crdae_communityoutreacheventscurrent),</v>
+      </c>
+      <c r="L1130" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_communityoutreacheventscurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_communityoutreacheventscurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1131" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C1131">
+        <v>165</v>
+      </c>
+      <c r="D1131" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F1131" s="2"/>
+      <c r="G1131">
+        <v>116</v>
+      </c>
+      <c r="H1131" s="26" t="s">
+        <v>2543</v>
+      </c>
+      <c r="I1131" t="str">
+        <f>_xlfn.CONCAT($H$1,H1131,$I$1,H1131,$J$1)</f>
+        <v>var crdae_communityoutreacheventsfurther = $("#crdae_communityoutreacheventsfurther").val();</v>
+      </c>
+      <c r="J1131" t="str">
+        <f>_xlfn.CONCAT($L$1,H1131,$K$1,H1131,"),")</f>
+        <v>"crdae_communityoutreacheventsfurther": Number(crdae_communityoutreacheventsfurther),</v>
+      </c>
+      <c r="L1131" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_communityoutreacheventsfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_communityoutreacheventsfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1132" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1132">
+        <v>133</v>
+      </c>
+      <c r="D1132" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1132" s="2"/>
+      <c r="G1132">
+        <v>84</v>
+      </c>
+      <c r="H1132" s="26" t="s">
+        <v>2544</v>
+      </c>
+      <c r="I1132" t="str">
+        <f>_xlfn.CONCAT($H$1,H1132,$I$1,H1132,$J$1)</f>
+        <v>var crdae_communityoutreacheventstotal = $("#crdae_communityoutreacheventstotal").val();</v>
+      </c>
+      <c r="J1132" t="str">
+        <f>_xlfn.CONCAT($L$1,H1132,$K$1,H1132,"),")</f>
+        <v>"crdae_communityoutreacheventstotal": Number(crdae_communityoutreacheventstotal),</v>
+      </c>
+      <c r="L1132" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_communityoutreacheventstotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_communityoutreacheventstotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1133">
+        <v>64</v>
+      </c>
+      <c r="D1133" s="2" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F1133" s="2"/>
+      <c r="G1133">
+        <v>15</v>
+      </c>
+      <c r="H1133" s="26" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I1133" t="str">
+        <f>_xlfn.CONCAT($H$1,H1133,$I$1,H1133,$J$1)</f>
+        <v>var crdae_datasystemequipincsafelicensesbudget = $("#crdae_datasystemequipincsafelicensesbudget").val();</v>
+      </c>
+      <c r="J1133" t="str">
+        <f>_xlfn.CONCAT($L$1,H1133,$K$1,H1133,"),")</f>
+        <v>"crdae_datasystemequipincsafelicensesbudget": Number(crdae_datasystemequipincsafelicensesbudget),</v>
+      </c>
+      <c r="L1133" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_datasystemequipincsafelicensesbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_datasystemequipincsafelicensesbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1134" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C1134">
+        <v>96</v>
+      </c>
+      <c r="D1134" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F1134" s="2"/>
+      <c r="G1134">
+        <v>47</v>
+      </c>
+      <c r="H1134" s="26" t="s">
+        <v>2546</v>
+      </c>
+      <c r="I1134" t="str">
+        <f>_xlfn.CONCAT($H$1,H1134,$I$1,H1134,$J$1)</f>
+        <v>var crdae_datasystemequipincsafelicensescurr = $("#crdae_datasystemequipincsafelicensescurr").val();</v>
+      </c>
+      <c r="J1134" t="str">
+        <f>_xlfn.CONCAT($L$1,H1134,$K$1,H1134,"),")</f>
+        <v>"crdae_datasystemequipincsafelicensescurr": Number(crdae_datasystemequipincsafelicensescurr),</v>
+      </c>
+      <c r="L1134" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_datasystemequipincsafelicensescurr"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_datasystemequipincsafelicensescurr}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1135" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C1135">
+        <v>160</v>
+      </c>
+      <c r="D1135" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F1135" s="2"/>
+      <c r="G1135">
+        <v>111</v>
+      </c>
+      <c r="H1135" s="26" t="s">
+        <v>2547</v>
+      </c>
+      <c r="I1135" t="str">
+        <f>_xlfn.CONCAT($H$1,H1135,$I$1,H1135,$J$1)</f>
+        <v>var crdae_datasystemequipincsafelicensesfur = $("#crdae_datasystemequipincsafelicensesfur").val();</v>
+      </c>
+      <c r="J1135" t="str">
+        <f>_xlfn.CONCAT($L$1,H1135,$K$1,H1135,"),")</f>
+        <v>"crdae_datasystemequipincsafelicensesfur": Number(crdae_datasystemequipincsafelicensesfur),</v>
+      </c>
+      <c r="L1135" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_datasystemequipincsafelicensesfur"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_datasystemequipincsafelicensesfur}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1136" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C1136">
+        <v>128</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F1136" s="2"/>
+      <c r="G1136">
+        <v>79</v>
+      </c>
+      <c r="H1136" s="26" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I1136" t="str">
+        <f>_xlfn.CONCAT($H$1,H1136,$I$1,H1136,$J$1)</f>
+        <v>var crdae_datasystemequipincsafelicensestot = $("#crdae_datasystemequipincsafelicensestot").val();</v>
+      </c>
+      <c r="J1136" t="str">
+        <f>_xlfn.CONCAT($L$1,H1136,$K$1,H1136,"),")</f>
+        <v>"crdae_datasystemequipincsafelicensestot": Number(crdae_datasystemequipincsafelicensestot),</v>
+      </c>
+      <c r="L1136" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_datasystemequipincsafelicensestot"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_datasystemequipincsafelicensestot}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1137">
+        <v>63</v>
+      </c>
+      <c r="D1137" s="2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F1137" s="2"/>
+      <c r="G1137">
+        <v>14</v>
+      </c>
+      <c r="H1137" s="26" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I1137" t="str">
+        <f>_xlfn.CONCAT($H$1,H1137,$I$1,H1137,$J$1)</f>
+        <v>var crdae_facilityrentbudget = $("#crdae_facilityrentbudget").val();</v>
+      </c>
+      <c r="J1137" t="str">
+        <f>_xlfn.CONCAT($L$1,H1137,$K$1,H1137,"),")</f>
+        <v>"crdae_facilityrentbudget": Number(crdae_facilityrentbudget),</v>
+      </c>
+      <c r="L1137" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_facilityrentbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_facilityrentbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1138" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C1138">
+        <v>95</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F1138" s="2"/>
+      <c r="G1138">
+        <v>46</v>
+      </c>
+      <c r="H1138" s="26" t="s">
+        <v>2550</v>
+      </c>
+      <c r="I1138" t="str">
+        <f>_xlfn.CONCAT($H$1,H1138,$I$1,H1138,$J$1)</f>
+        <v>var crdae_facilityrentcurrent = $("#crdae_facilityrentcurrent").val();</v>
+      </c>
+      <c r="J1138" t="str">
+        <f>_xlfn.CONCAT($L$1,H1138,$K$1,H1138,"),")</f>
+        <v>"crdae_facilityrentcurrent": Number(crdae_facilityrentcurrent),</v>
+      </c>
+      <c r="L1138" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_facilityrentcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_facilityrentcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1139" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1139">
+        <v>159</v>
+      </c>
+      <c r="D1139" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F1139" s="2"/>
+      <c r="G1139">
+        <v>110</v>
+      </c>
+      <c r="H1139" s="26" t="s">
+        <v>2551</v>
+      </c>
+      <c r="I1139" t="str">
+        <f>_xlfn.CONCAT($H$1,H1139,$I$1,H1139,$J$1)</f>
+        <v>var crdae_facilityrentfurther = $("#crdae_facilityrentfurther").val();</v>
+      </c>
+      <c r="J1139" t="str">
+        <f>_xlfn.CONCAT($L$1,H1139,$K$1,H1139,"),")</f>
+        <v>"crdae_facilityrentfurther": Number(crdae_facilityrentfurther),</v>
+      </c>
+      <c r="L1139" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_facilityrentfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_facilityrentfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1140" s="2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C1140">
+        <v>127</v>
+      </c>
+      <c r="D1140" s="2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F1140" s="2"/>
+      <c r="G1140">
+        <v>78</v>
+      </c>
+      <c r="H1140" s="26" t="s">
+        <v>2552</v>
+      </c>
+      <c r="I1140" t="str">
+        <f>_xlfn.CONCAT($H$1,H1140,$I$1,H1140,$J$1)</f>
+        <v>var crdae_facilityrenttotal = $("#crdae_facilityrenttotal").val();</v>
+      </c>
+      <c r="J1140" t="str">
+        <f>_xlfn.CONCAT($L$1,H1140,$K$1,H1140,"),")</f>
+        <v>"crdae_facilityrenttotal": Number(crdae_facilityrenttotal),</v>
+      </c>
+      <c r="L1140" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_facilityrenttotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_facilityrenttotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C1141">
+        <v>52</v>
+      </c>
+      <c r="D1141" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F1141" s="2"/>
+      <c r="G1141">
+        <v>3</v>
+      </c>
+      <c r="H1141" s="26" t="s">
+        <v>2553</v>
+      </c>
+      <c r="I1141" t="str">
+        <f>_xlfn.CONCAT($H$1,H1141,$I$1,H1141,$J$1)</f>
+        <v>var crdae_fieldcoordinator1budget = $("#crdae_fieldcoordinator1budget").val();</v>
+      </c>
+      <c r="J1141" t="str">
+        <f>_xlfn.CONCAT($L$1,H1141,$K$1,H1141,"),")</f>
+        <v>"crdae_fieldcoordinator1budget": Number(crdae_fieldcoordinator1budget),</v>
+      </c>
+      <c r="L1141" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator1budget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator1budget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1142" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1142">
+        <v>84</v>
+      </c>
+      <c r="D1142" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F1142" s="2"/>
+      <c r="G1142">
+        <v>35</v>
+      </c>
+      <c r="H1142" s="26" t="s">
+        <v>2554</v>
+      </c>
+      <c r="I1142" t="str">
+        <f>_xlfn.CONCAT($H$1,H1142,$I$1,H1142,$J$1)</f>
+        <v>var crdae_fieldcoordinator1current = $("#crdae_fieldcoordinator1current").val();</v>
+      </c>
+      <c r="J1142" t="str">
+        <f>_xlfn.CONCAT($L$1,H1142,$K$1,H1142,"),")</f>
+        <v>"crdae_fieldcoordinator1current": Number(crdae_fieldcoordinator1current),</v>
+      </c>
+      <c r="L1142" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator1current"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator1current}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1143" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C1143">
+        <v>148</v>
+      </c>
+      <c r="D1143" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F1143" s="2"/>
+      <c r="G1143">
+        <v>99</v>
+      </c>
+      <c r="H1143" s="26" t="s">
+        <v>2555</v>
+      </c>
+      <c r="I1143" t="str">
+        <f>_xlfn.CONCAT($H$1,H1143,$I$1,H1143,$J$1)</f>
+        <v>var crdae_fieldcoordinator1further = $("#crdae_fieldcoordinator1further").val();</v>
+      </c>
+      <c r="J1143" t="str">
+        <f>_xlfn.CONCAT($L$1,H1143,$K$1,H1143,"),")</f>
+        <v>"crdae_fieldcoordinator1further": Number(crdae_fieldcoordinator1further),</v>
+      </c>
+      <c r="L1143" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator1further"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator1further}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1144" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C1144">
+        <v>116</v>
+      </c>
+      <c r="D1144" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="F1144" s="2"/>
+      <c r="G1144">
+        <v>67</v>
+      </c>
+      <c r="H1144" s="26" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I1144" t="str">
+        <f>_xlfn.CONCAT($H$1,H1144,$I$1,H1144,$J$1)</f>
+        <v>var crdae_fieldcoordinator1total = $("#crdae_fieldcoordinator1total").val();</v>
+      </c>
+      <c r="J1144" t="str">
+        <f>_xlfn.CONCAT($L$1,H1144,$K$1,H1144,"),")</f>
+        <v>"crdae_fieldcoordinator1total": Number(crdae_fieldcoordinator1total),</v>
+      </c>
+      <c r="L1144" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator1total"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator1total}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C1145">
+        <v>53</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F1145" s="2"/>
+      <c r="G1145">
+        <v>4</v>
+      </c>
+      <c r="H1145" s="26" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I1145" t="str">
+        <f>_xlfn.CONCAT($H$1,H1145,$I$1,H1145,$J$1)</f>
+        <v>var crdae_fieldcoordinator2budget = $("#crdae_fieldcoordinator2budget").val();</v>
+      </c>
+      <c r="J1145" t="str">
+        <f>_xlfn.CONCAT($L$1,H1145,$K$1,H1145,"),")</f>
+        <v>"crdae_fieldcoordinator2budget": Number(crdae_fieldcoordinator2budget),</v>
+      </c>
+      <c r="L1145" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator2budget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator2budget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1146" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1146">
+        <v>85</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F1146" s="2"/>
+      <c r="G1146">
+        <v>36</v>
+      </c>
+      <c r="H1146" s="26" t="s">
+        <v>2558</v>
+      </c>
+      <c r="I1146" t="str">
+        <f>_xlfn.CONCAT($H$1,H1146,$I$1,H1146,$J$1)</f>
+        <v>var crdae_fieldcoordinator2current = $("#crdae_fieldcoordinator2current").val();</v>
+      </c>
+      <c r="J1146" t="str">
+        <f>_xlfn.CONCAT($L$1,H1146,$K$1,H1146,"),")</f>
+        <v>"crdae_fieldcoordinator2current": Number(crdae_fieldcoordinator2current),</v>
+      </c>
+      <c r="L1146" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator2current"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator2current}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1147" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C1147">
+        <v>149</v>
+      </c>
+      <c r="D1147" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F1147" s="2"/>
+      <c r="G1147">
+        <v>100</v>
+      </c>
+      <c r="H1147" s="26" t="s">
+        <v>2559</v>
+      </c>
+      <c r="I1147" t="str">
+        <f>_xlfn.CONCAT($H$1,H1147,$I$1,H1147,$J$1)</f>
+        <v>var crdae_fieldcoordinator2further = $("#crdae_fieldcoordinator2further").val();</v>
+      </c>
+      <c r="J1147" t="str">
+        <f>_xlfn.CONCAT($L$1,H1147,$K$1,H1147,"),")</f>
+        <v>"crdae_fieldcoordinator2further": Number(crdae_fieldcoordinator2further),</v>
+      </c>
+      <c r="L1147" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator2further"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator2further}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1148" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C1148">
+        <v>117</v>
+      </c>
+      <c r="D1148" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F1148" s="2"/>
+      <c r="G1148">
+        <v>68</v>
+      </c>
+      <c r="H1148" s="26" t="s">
+        <v>2560</v>
+      </c>
+      <c r="I1148" t="str">
+        <f>_xlfn.CONCAT($H$1,H1148,$I$1,H1148,$J$1)</f>
+        <v>var crdae_fieldcoordinator2total = $("#crdae_fieldcoordinator2total").val();</v>
+      </c>
+      <c r="J1148" t="str">
+        <f>_xlfn.CONCAT($L$1,H1148,$K$1,H1148,"),")</f>
+        <v>"crdae_fieldcoordinator2total": Number(crdae_fieldcoordinator2total),</v>
+      </c>
+      <c r="L1148" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator2total"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator2total}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C1149">
+        <v>56</v>
+      </c>
+      <c r="D1149" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F1149" s="2"/>
+      <c r="G1149">
+        <v>7</v>
+      </c>
+      <c r="H1149" s="26" t="s">
+        <v>2561</v>
+      </c>
+      <c r="I1149" t="str">
+        <f>_xlfn.CONCAT($H$1,H1149,$I$1,H1149,$J$1)</f>
+        <v>var crdae_fieldcoordinator3budget = $("#crdae_fieldcoordinator3budget").val();</v>
+      </c>
+      <c r="J1149" t="str">
+        <f>_xlfn.CONCAT($L$1,H1149,$K$1,H1149,"),")</f>
+        <v>"crdae_fieldcoordinator3budget": Number(crdae_fieldcoordinator3budget),</v>
+      </c>
+      <c r="L1149" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator3budget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator3budget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1150" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1150">
+        <v>88</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F1150" s="2"/>
+      <c r="G1150">
+        <v>39</v>
+      </c>
+      <c r="H1150" s="26" t="s">
+        <v>2562</v>
+      </c>
+      <c r="I1150" t="str">
+        <f>_xlfn.CONCAT($H$1,H1150,$I$1,H1150,$J$1)</f>
+        <v>var crdae_fieldcoordinator3current = $("#crdae_fieldcoordinator3current").val();</v>
+      </c>
+      <c r="J1150" t="str">
+        <f>_xlfn.CONCAT($L$1,H1150,$K$1,H1150,"),")</f>
+        <v>"crdae_fieldcoordinator3current": Number(crdae_fieldcoordinator3current),</v>
+      </c>
+      <c r="L1150" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator3current"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator3current}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1151" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C1151">
+        <v>152</v>
+      </c>
+      <c r="D1151" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1151" s="2"/>
+      <c r="G1151">
+        <v>103</v>
+      </c>
+      <c r="H1151" s="26" t="s">
+        <v>2563</v>
+      </c>
+      <c r="I1151" t="str">
+        <f>_xlfn.CONCAT($H$1,H1151,$I$1,H1151,$J$1)</f>
+        <v>var crdae_fieldcoordinator3further = $("#crdae_fieldcoordinator3further").val();</v>
+      </c>
+      <c r="J1151" t="str">
+        <f>_xlfn.CONCAT($L$1,H1151,$K$1,H1151,"),")</f>
+        <v>"crdae_fieldcoordinator3further": Number(crdae_fieldcoordinator3further),</v>
+      </c>
+      <c r="L1151" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator3further"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator3further}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1152" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C1152">
+        <v>120</v>
+      </c>
+      <c r="D1152" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F1152" s="2"/>
+      <c r="G1152">
+        <v>71</v>
+      </c>
+      <c r="H1152" s="26" t="s">
+        <v>2564</v>
+      </c>
+      <c r="I1152" t="str">
+        <f>_xlfn.CONCAT($H$1,H1152,$I$1,H1152,$J$1)</f>
+        <v>var crdae_fieldcoordinator3total = $("#crdae_fieldcoordinator3total").val();</v>
+      </c>
+      <c r="J1152" t="str">
+        <f>_xlfn.CONCAT($L$1,H1152,$K$1,H1152,"),")</f>
+        <v>"crdae_fieldcoordinator3total": Number(crdae_fieldcoordinator3total),</v>
+      </c>
+      <c r="L1152" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fieldcoordinator3total"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fieldcoordinator3total}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1153">
+        <v>58</v>
+      </c>
+      <c r="D1153" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F1153" s="2"/>
+      <c r="G1153">
+        <v>9</v>
+      </c>
+      <c r="H1153" s="26" t="s">
+        <v>2565</v>
+      </c>
+      <c r="I1153" t="str">
+        <f>_xlfn.CONCAT($H$1,H1153,$I$1,H1153,$J$1)</f>
+        <v>var crdae_fringe33budget = $("#crdae_fringe33budget").val();</v>
+      </c>
+      <c r="J1153" t="str">
+        <f>_xlfn.CONCAT($L$1,H1153,$K$1,H1153,"),")</f>
+        <v>"crdae_fringe33budget": Number(crdae_fringe33budget),</v>
+      </c>
+      <c r="L1153" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fringe33budget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fringe33budget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1154" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C1154">
+        <v>90</v>
+      </c>
+      <c r="D1154" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F1154" s="2"/>
+      <c r="G1154">
+        <v>41</v>
+      </c>
+      <c r="H1154" s="26" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I1154" t="str">
+        <f>_xlfn.CONCAT($H$1,H1154,$I$1,H1154,$J$1)</f>
+        <v>var crdae_fringe33current = $("#crdae_fringe33current").val();</v>
+      </c>
+      <c r="J1154" t="str">
+        <f>_xlfn.CONCAT($L$1,H1154,$K$1,H1154,"),")</f>
+        <v>"crdae_fringe33current": Number(crdae_fringe33current),</v>
+      </c>
+      <c r="L1154" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fringe33current"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fringe33current}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1155" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C1155">
+        <v>154</v>
+      </c>
+      <c r="D1155" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F1155" s="2"/>
+      <c r="G1155">
+        <v>105</v>
+      </c>
+      <c r="H1155" s="26" t="s">
+        <v>2567</v>
+      </c>
+      <c r="I1155" t="str">
+        <f>_xlfn.CONCAT($H$1,H1155,$I$1,H1155,$J$1)</f>
+        <v>var crdae_fringe33further = $("#crdae_fringe33further").val();</v>
+      </c>
+      <c r="J1155" t="str">
+        <f>_xlfn.CONCAT($L$1,H1155,$K$1,H1155,"),")</f>
+        <v>"crdae_fringe33further": Number(crdae_fringe33further),</v>
+      </c>
+      <c r="L1155" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fringe33further"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fringe33further}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1156" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C1156">
+        <v>122</v>
+      </c>
+      <c r="D1156" s="2" t="s">
+        <v>2378</v>
+      </c>
+      <c r="F1156" s="2"/>
+      <c r="G1156">
+        <v>73</v>
+      </c>
+      <c r="H1156" s="26" t="s">
+        <v>2568</v>
+      </c>
+      <c r="I1156" t="str">
+        <f>_xlfn.CONCAT($H$1,H1156,$I$1,H1156,$J$1)</f>
+        <v>var crdae_fringe33total = $("#crdae_fringe33total").val();</v>
+      </c>
+      <c r="J1156" t="str">
+        <f>_xlfn.CONCAT($L$1,H1156,$K$1,H1156,"),")</f>
+        <v>"crdae_fringe33total": Number(crdae_fringe33total),</v>
+      </c>
+      <c r="L1156" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fringe33total"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fringe33total}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1157" s="39" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1157">
+        <v>60</v>
+      </c>
+      <c r="D1157" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F1157" s="2"/>
+      <c r="G1157">
+        <v>11</v>
+      </c>
+      <c r="H1157" s="26" t="s">
+        <v>2569</v>
+      </c>
+      <c r="I1157" t="str">
+        <f>_xlfn.CONCAT($H$1,H1157,$I$1,H1157,$J$1)</f>
+        <v>var crdae_fringeratechargedbudget = $("#crdae_fringeratechargedbudget").val();</v>
+      </c>
+      <c r="J1157" t="str">
+        <f>_xlfn.CONCAT($L$1,H1157,$K$1,H1157,"),")</f>
+        <v>"crdae_fringeratechargedbudget": Number(crdae_fringeratechargedbudget),</v>
+      </c>
+      <c r="L1157" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fringeratechargedbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fringeratechargedbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1158" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C1158">
+        <v>92</v>
+      </c>
+      <c r="D1158" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F1158" s="2"/>
+      <c r="G1158">
+        <v>43</v>
+      </c>
+      <c r="H1158" s="26" t="s">
+        <v>2570</v>
+      </c>
+      <c r="I1158" t="str">
+        <f>_xlfn.CONCAT($H$1,H1158,$I$1,H1158,$J$1)</f>
+        <v>var crdae_fringeratechargedcurrent = $("#crdae_fringeratechargedcurrent").val();</v>
+      </c>
+      <c r="J1158" t="str">
+        <f>_xlfn.CONCAT($L$1,H1158,$K$1,H1158,"),")</f>
+        <v>"crdae_fringeratechargedcurrent": Number(crdae_fringeratechargedcurrent),</v>
+      </c>
+      <c r="L1158" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fringeratechargedcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fringeratechargedcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1159" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C1159">
+        <v>156</v>
+      </c>
+      <c r="D1159" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F1159" s="2"/>
+      <c r="G1159">
+        <v>107</v>
+      </c>
+      <c r="H1159" s="26" t="s">
+        <v>2571</v>
+      </c>
+      <c r="I1159" t="str">
+        <f>_xlfn.CONCAT($H$1,H1159,$I$1,H1159,$J$1)</f>
+        <v>var crdae_fringeratechargedfurther = $("#crdae_fringeratechargedfurther").val();</v>
+      </c>
+      <c r="J1159" t="str">
+        <f>_xlfn.CONCAT($L$1,H1159,$K$1,H1159,"),")</f>
+        <v>"crdae_fringeratechargedfurther": Number(crdae_fringeratechargedfurther),</v>
+      </c>
+      <c r="L1159" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fringeratechargedfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fringeratechargedfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1160" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1160">
+        <v>124</v>
+      </c>
+      <c r="D1160" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F1160" s="2"/>
+      <c r="G1160">
+        <v>75</v>
+      </c>
+      <c r="H1160" s="26" t="s">
+        <v>2572</v>
+      </c>
+      <c r="I1160" t="str">
+        <f>_xlfn.CONCAT($H$1,H1160,$I$1,H1160,$J$1)</f>
+        <v>var crdae_fringeratechargedtotal = $("#crdae_fringeratechargedtotal").val();</v>
+      </c>
+      <c r="J1160" t="str">
+        <f>_xlfn.CONCAT($L$1,H1160,$K$1,H1160,"),")</f>
+        <v>"crdae_fringeratechargedtotal": Number(crdae_fringeratechargedtotal),</v>
+      </c>
+      <c r="L1160" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_fringeratechargedtotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_fringeratechargedtotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1161" s="39" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C1161">
+        <v>81</v>
+      </c>
+      <c r="D1161" s="2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="F1161" s="2"/>
+      <c r="G1161">
+        <v>32</v>
+      </c>
+      <c r="H1161" s="26" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I1161" t="str">
+        <f>_xlfn.CONCAT($H$1,H1161,$I$1,H1161,$J$1)</f>
+        <v>var crdae_grandtotalexpensesbudget = $("#crdae_grandtotalexpensesbudget").val();</v>
+      </c>
+      <c r="J1161" t="str">
+        <f>_xlfn.CONCAT($L$1,H1161,$K$1,H1161,"),")</f>
+        <v>"crdae_grandtotalexpensesbudget": Number(crdae_grandtotalexpensesbudget),</v>
+      </c>
+      <c r="L1161" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_grandtotalexpensesbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_grandtotalexpensesbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1162" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C1162">
+        <v>113</v>
+      </c>
+      <c r="D1162" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F1162" s="2"/>
+      <c r="G1162">
+        <v>64</v>
+      </c>
+      <c r="H1162" s="26" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I1162" t="str">
+        <f>_xlfn.CONCAT($H$1,H1162,$I$1,H1162,$J$1)</f>
+        <v>var crdae_grandtotalexpensescurrent = $("#crdae_grandtotalexpensescurrent").val();</v>
+      </c>
+      <c r="J1162" t="str">
+        <f>_xlfn.CONCAT($L$1,H1162,$K$1,H1162,"),")</f>
+        <v>"crdae_grandtotalexpensescurrent": Number(crdae_grandtotalexpensescurrent),</v>
+      </c>
+      <c r="L1162" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_grandtotalexpensescurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_grandtotalexpensescurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1163" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1163">
+        <v>177</v>
+      </c>
+      <c r="D1163" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F1163" s="2"/>
+      <c r="G1163">
+        <v>128</v>
+      </c>
+      <c r="H1163" s="26" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I1163" t="str">
+        <f>_xlfn.CONCAT($H$1,H1163,$I$1,H1163,$J$1)</f>
+        <v>var crdae_grandtotalexpensesfurther = $("#crdae_grandtotalexpensesfurther").val();</v>
+      </c>
+      <c r="J1163" t="str">
+        <f>_xlfn.CONCAT($L$1,H1163,$K$1,H1163,"),")</f>
+        <v>"crdae_grandtotalexpensesfurther": Number(crdae_grandtotalexpensesfurther),</v>
+      </c>
+      <c r="L1163" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_grandtotalexpensesfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_grandtotalexpensesfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1164" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C1164">
+        <v>145</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F1164" s="2"/>
+      <c r="G1164">
+        <v>96</v>
+      </c>
+      <c r="H1164" s="26" t="s">
+        <v>2576</v>
+      </c>
+      <c r="I1164" t="str">
+        <f>_xlfn.CONCAT($H$1,H1164,$I$1,H1164,$J$1)</f>
+        <v>var crdae_grandtotalexpensestotal = $("#crdae_grandtotalexpensestotal").val();</v>
+      </c>
+      <c r="J1164" t="str">
+        <f>_xlfn.CONCAT($L$1,H1164,$K$1,H1164,"),")</f>
+        <v>"crdae_grandtotalexpensestotal": Number(crdae_grandtotalexpensestotal),</v>
+      </c>
+      <c r="L1164" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_grandtotalexpensestotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_grandtotalexpensestotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C1165">
+        <v>74</v>
+      </c>
+      <c r="D1165" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F1165" s="2"/>
+      <c r="G1165">
+        <v>25</v>
+      </c>
+      <c r="H1165" s="26" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I1165" t="str">
+        <f>_xlfn.CONCAT($H$1,H1165,$I$1,H1165,$J$1)</f>
+        <v>var crdae_indirectexpenses15budget = $("#crdae_indirectexpenses15budget").val();</v>
+      </c>
+      <c r="J1165" t="str">
+        <f>_xlfn.CONCAT($L$1,H1165,$K$1,H1165,"),")</f>
+        <v>"crdae_indirectexpenses15budget": Number(crdae_indirectexpenses15budget),</v>
+      </c>
+      <c r="L1165" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_indirectexpenses15budget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_indirectexpenses15budget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1166" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C1166">
+        <v>106</v>
+      </c>
+      <c r="D1166" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F1166" s="2"/>
+      <c r="G1166">
+        <v>57</v>
+      </c>
+      <c r="H1166" s="26" t="s">
+        <v>2578</v>
+      </c>
+      <c r="I1166" t="str">
+        <f>_xlfn.CONCAT($H$1,H1166,$I$1,H1166,$J$1)</f>
+        <v>var crdae_indirectexpenses15current = $("#crdae_indirectexpenses15current").val();</v>
+      </c>
+      <c r="J1166" t="str">
+        <f>_xlfn.CONCAT($L$1,H1166,$K$1,H1166,"),")</f>
+        <v>"crdae_indirectexpenses15current": Number(crdae_indirectexpenses15current),</v>
+      </c>
+      <c r="L1166" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_indirectexpenses15current"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_indirectexpenses15current}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1167" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C1167">
+        <v>170</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F1167" s="2"/>
+      <c r="G1167">
+        <v>121</v>
+      </c>
+      <c r="H1167" s="26" t="s">
+        <v>2579</v>
+      </c>
+      <c r="I1167" t="str">
+        <f>_xlfn.CONCAT($H$1,H1167,$I$1,H1167,$J$1)</f>
+        <v>var crdae_indirectexpenses15further = $("#crdae_indirectexpenses15further").val();</v>
+      </c>
+      <c r="J1167" t="str">
+        <f>_xlfn.CONCAT($L$1,H1167,$K$1,H1167,"),")</f>
+        <v>"crdae_indirectexpenses15further": Number(crdae_indirectexpenses15further),</v>
+      </c>
+      <c r="L1167" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_indirectexpenses15further"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_indirectexpenses15further}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1168" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C1168">
+        <v>138</v>
+      </c>
+      <c r="D1168" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F1168" s="2"/>
+      <c r="G1168">
+        <v>89</v>
+      </c>
+      <c r="H1168" s="26" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I1168" t="str">
+        <f>_xlfn.CONCAT($H$1,H1168,$I$1,H1168,$J$1)</f>
+        <v>var crdae_indirectexpenses15total = $("#crdae_indirectexpenses15total").val();</v>
+      </c>
+      <c r="J1168" t="str">
+        <f>_xlfn.CONCAT($L$1,H1168,$K$1,H1168,"),")</f>
+        <v>"crdae_indirectexpenses15total": Number(crdae_indirectexpenses15total),</v>
+      </c>
+      <c r="L1168" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_indirectexpenses15total"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_indirectexpenses15total}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1169">
+        <v>76</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F1169" s="2"/>
+      <c r="G1169">
+        <v>27</v>
+      </c>
+      <c r="H1169" s="26" t="s">
+        <v>2581</v>
+      </c>
+      <c r="I1169" t="str">
+        <f>_xlfn.CONCAT($H$1,H1169,$I$1,H1169,$J$1)</f>
+        <v>var crdae_indirectratechargedbudget = $("#crdae_indirectratechargedbudget").val();</v>
+      </c>
+      <c r="J1169" t="str">
+        <f>_xlfn.CONCAT($L$1,H1169,$K$1,H1169,"),")</f>
+        <v>"crdae_indirectratechargedbudget": Number(crdae_indirectratechargedbudget),</v>
+      </c>
+      <c r="L1169" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_indirectratechargedbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_indirectratechargedbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1170" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C1170">
+        <v>108</v>
+      </c>
+      <c r="D1170" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1170" s="2"/>
+      <c r="G1170">
+        <v>59</v>
+      </c>
+      <c r="H1170" s="26" t="s">
+        <v>2582</v>
+      </c>
+      <c r="I1170" t="str">
+        <f>_xlfn.CONCAT($H$1,H1170,$I$1,H1170,$J$1)</f>
+        <v>var crdae_indirectratechargedcurrent = $("#crdae_indirectratechargedcurrent").val();</v>
+      </c>
+      <c r="J1170" t="str">
+        <f>_xlfn.CONCAT($L$1,H1170,$K$1,H1170,"),")</f>
+        <v>"crdae_indirectratechargedcurrent": Number(crdae_indirectratechargedcurrent),</v>
+      </c>
+      <c r="L1170" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_indirectratechargedcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_indirectratechargedcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1171" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C1171">
+        <v>172</v>
+      </c>
+      <c r="D1171" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F1171" s="2"/>
+      <c r="G1171">
+        <v>123</v>
+      </c>
+      <c r="H1171" s="26" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I1171" t="str">
+        <f>_xlfn.CONCAT($H$1,H1171,$I$1,H1171,$J$1)</f>
+        <v>var crdae_indirectratechargedfurther = $("#crdae_indirectratechargedfurther").val();</v>
+      </c>
+      <c r="J1171" t="str">
+        <f>_xlfn.CONCAT($L$1,H1171,$K$1,H1171,"),")</f>
+        <v>"crdae_indirectratechargedfurther": Number(crdae_indirectratechargedfurther),</v>
+      </c>
+      <c r="L1171" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_indirectratechargedfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_indirectratechargedfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1172" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1172">
+        <v>140</v>
+      </c>
+      <c r="D1172" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F1172" s="2"/>
+      <c r="G1172">
+        <v>91</v>
+      </c>
+      <c r="H1172" s="26" t="s">
+        <v>2584</v>
+      </c>
+      <c r="I1172" t="str">
+        <f>_xlfn.CONCAT($H$1,H1172,$I$1,H1172,$J$1)</f>
+        <v>var crdae_indirectratechargedtotal = $("#crdae_indirectratechargedtotal").val();</v>
+      </c>
+      <c r="J1172" t="str">
+        <f>_xlfn.CONCAT($L$1,H1172,$K$1,H1172,"),")</f>
+        <v>"crdae_indirectratechargedtotal": Number(crdae_indirectratechargedtotal),</v>
+      </c>
+      <c r="L1172" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_indirectratechargedtotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_indirectratechargedtotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C1173">
+        <v>65</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F1173" s="2"/>
+      <c r="G1173">
+        <v>16</v>
+      </c>
+      <c r="H1173" s="26" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I1173" t="str">
+        <f>_xlfn.CONCAT($H$1,H1173,$I$1,H1173,$J$1)</f>
+        <v>var crdae_internetwififaxbudget = $("#crdae_internetwififaxbudget").val();</v>
+      </c>
+      <c r="J1173" t="str">
+        <f>_xlfn.CONCAT($L$1,H1173,$K$1,H1173,"),")</f>
+        <v>"crdae_internetwififaxbudget": Number(crdae_internetwififaxbudget),</v>
+      </c>
+      <c r="L1173" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_internetwififaxbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_internetwififaxbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1174" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C1174">
+        <v>97</v>
+      </c>
+      <c r="D1174" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F1174" s="2"/>
+      <c r="G1174">
+        <v>48</v>
+      </c>
+      <c r="H1174" s="26" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I1174" t="str">
+        <f>_xlfn.CONCAT($H$1,H1174,$I$1,H1174,$J$1)</f>
+        <v>var crdae_internetwififaxcurrent = $("#crdae_internetwififaxcurrent").val();</v>
+      </c>
+      <c r="J1174" t="str">
+        <f>_xlfn.CONCAT($L$1,H1174,$K$1,H1174,"),")</f>
+        <v>"crdae_internetwififaxcurrent": Number(crdae_internetwififaxcurrent),</v>
+      </c>
+      <c r="L1174" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_internetwififaxcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_internetwififaxcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1175" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C1175">
+        <v>161</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F1175" s="2"/>
+      <c r="G1175">
+        <v>112</v>
+      </c>
+      <c r="H1175" s="26" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I1175" t="str">
+        <f>_xlfn.CONCAT($H$1,H1175,$I$1,H1175,$J$1)</f>
+        <v>var crdae_internetwififaxfurther = $("#crdae_internetwififaxfurther").val();</v>
+      </c>
+      <c r="J1175" t="str">
+        <f>_xlfn.CONCAT($L$1,H1175,$K$1,H1175,"),")</f>
+        <v>"crdae_internetwififaxfurther": Number(crdae_internetwififaxfurther),</v>
+      </c>
+      <c r="L1175" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_internetwififaxfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_internetwififaxfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1176" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C1176">
+        <v>129</v>
+      </c>
+      <c r="D1176" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F1176" s="2"/>
+      <c r="G1176">
+        <v>80</v>
+      </c>
+      <c r="H1176" s="26" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I1176" t="str">
+        <f>_xlfn.CONCAT($H$1,H1176,$I$1,H1176,$J$1)</f>
+        <v>var crdae_internetwififaxtotal = $("#crdae_internetwififaxtotal").val();</v>
+      </c>
+      <c r="J1176" t="str">
+        <f>_xlfn.CONCAT($L$1,H1176,$K$1,H1176,"),")</f>
+        <v>"crdae_internetwififaxtotal": Number(crdae_internetwififaxtotal),</v>
+      </c>
+      <c r="L1176" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_internetwififaxtotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_internetwififaxtotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1177">
+        <v>55</v>
+      </c>
+      <c r="D1177" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F1177" s="2"/>
+      <c r="G1177">
+        <v>6</v>
+      </c>
+      <c r="H1177" s="26" t="s">
+        <v>2589</v>
+      </c>
+      <c r="I1177" t="str">
+        <f>_xlfn.CONCAT($H$1,H1177,$I$1,H1177,$J$1)</f>
+        <v>var crdae_mentorvolunteercoordinatorbudget = $("#crdae_mentorvolunteercoordinatorbudget").val();</v>
+      </c>
+      <c r="J1177" t="str">
+        <f>_xlfn.CONCAT($L$1,H1177,$K$1,H1177,"),")</f>
+        <v>"crdae_mentorvolunteercoordinatorbudget": Number(crdae_mentorvolunteercoordinatorbudget),</v>
+      </c>
+      <c r="L1177" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_mentorvolunteercoordinatorbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_mentorvolunteercoordinatorbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1178" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C1178">
+        <v>87</v>
+      </c>
+      <c r="D1178" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F1178" s="2"/>
+      <c r="G1178">
+        <v>38</v>
+      </c>
+      <c r="H1178" s="26" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I1178" t="str">
+        <f>_xlfn.CONCAT($H$1,H1178,$I$1,H1178,$J$1)</f>
+        <v>var crdae_mentorvolunteercoordinatorcurrent = $("#crdae_mentorvolunteercoordinatorcurrent").val();</v>
+      </c>
+      <c r="J1178" t="str">
+        <f>_xlfn.CONCAT($L$1,H1178,$K$1,H1178,"),")</f>
+        <v>"crdae_mentorvolunteercoordinatorcurrent": Number(crdae_mentorvolunteercoordinatorcurrent),</v>
+      </c>
+      <c r="L1178" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_mentorvolunteercoordinatorcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_mentorvolunteercoordinatorcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1179" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1179">
+        <v>151</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F1179" s="2"/>
+      <c r="G1179">
+        <v>102</v>
+      </c>
+      <c r="H1179" s="26" t="s">
+        <v>2591</v>
+      </c>
+      <c r="I1179" t="str">
+        <f>_xlfn.CONCAT($H$1,H1179,$I$1,H1179,$J$1)</f>
+        <v>var crdae_mentorvolunteercoordinatorfurther = $("#crdae_mentorvolunteercoordinatorfurther").val();</v>
+      </c>
+      <c r="J1179" t="str">
+        <f>_xlfn.CONCAT($L$1,H1179,$K$1,H1179,"),")</f>
+        <v>"crdae_mentorvolunteercoordinatorfurther": Number(crdae_mentorvolunteercoordinatorfurther),</v>
+      </c>
+      <c r="L1179" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_mentorvolunteercoordinatorfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_mentorvolunteercoordinatorfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1180" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C1180">
+        <v>119</v>
+      </c>
+      <c r="D1180" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F1180" s="2"/>
+      <c r="G1180">
+        <v>70</v>
+      </c>
+      <c r="H1180" s="26" t="s">
+        <v>2592</v>
+      </c>
+      <c r="I1180" t="str">
+        <f>_xlfn.CONCAT($H$1,H1180,$I$1,H1180,$J$1)</f>
+        <v>var crdae_mentorvolunteercoordinatortotal = $("#crdae_mentorvolunteercoordinatortotal").val();</v>
+      </c>
+      <c r="J1180" t="str">
+        <f>_xlfn.CONCAT($L$1,H1180,$K$1,H1180,"),")</f>
+        <v>"crdae_mentorvolunteercoordinatortotal": Number(crdae_mentorvolunteercoordinatortotal),</v>
+      </c>
+      <c r="L1180" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_mentorvolunteercoordinatortotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_mentorvolunteercoordinatortotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1181">
+        <v>51</v>
+      </c>
+      <c r="D1181" s="2" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F1181" s="2"/>
+      <c r="G1181">
+        <v>2</v>
+      </c>
+      <c r="H1181" s="26" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I1181" t="str">
+        <f>_xlfn.CONCAT($H$1,H1181,$I$1,H1181,$J$1)</f>
+        <v>var crdae_networkmanagerbudget = $("#crdae_networkmanagerbudget").val();</v>
+      </c>
+      <c r="J1181" t="str">
+        <f>_xlfn.CONCAT($L$1,H1181,$K$1,H1181,"),")</f>
+        <v>"crdae_networkmanagerbudget": Number(crdae_networkmanagerbudget),</v>
+      </c>
+      <c r="L1181" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_networkmanagerbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_networkmanagerbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1182" s="2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1182">
+        <v>83</v>
+      </c>
+      <c r="D1182" s="2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F1182" s="2"/>
+      <c r="G1182">
+        <v>34</v>
+      </c>
+      <c r="H1182" s="26" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I1182" t="str">
+        <f>_xlfn.CONCAT($H$1,H1182,$I$1,H1182,$J$1)</f>
+        <v>var crdae_networkmanagercurrent = $("#crdae_networkmanagercurrent").val();</v>
+      </c>
+      <c r="J1182" t="str">
+        <f>_xlfn.CONCAT($L$1,H1182,$K$1,H1182,"),")</f>
+        <v>"crdae_networkmanagercurrent": Number(crdae_networkmanagercurrent),</v>
+      </c>
+      <c r="L1182" s="31" t="str">
+        <f t="shared" ref="L1182:L1244" si="20">_xlfn.CONCAT("&lt;td&gt;",$A$1,H1182,$C$1,H1182,$D$1,"&lt;/td&gt;")</f>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_networkmanagercurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_networkmanagercurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1183" s="2" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C1183">
+        <v>147</v>
+      </c>
+      <c r="D1183" s="2" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F1183" s="2"/>
+      <c r="G1183">
+        <v>98</v>
+      </c>
+      <c r="H1183" s="26" t="s">
+        <v>2595</v>
+      </c>
+      <c r="I1183" t="str">
+        <f>_xlfn.CONCAT($H$1,H1183,$I$1,H1183,$J$1)</f>
+        <v>var crdae_networkmanagerfurther = $("#crdae_networkmanagerfurther").val();</v>
+      </c>
+      <c r="J1183" t="str">
+        <f>_xlfn.CONCAT($L$1,H1183,$K$1,H1183,"),")</f>
+        <v>"crdae_networkmanagerfurther": Number(crdae_networkmanagerfurther),</v>
+      </c>
+      <c r="L1183" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_networkmanagerfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_networkmanagerfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1184" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C1184">
+        <v>115</v>
+      </c>
+      <c r="D1184" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F1184" s="2"/>
+      <c r="G1184">
+        <v>66</v>
+      </c>
+      <c r="H1184" s="26" t="s">
+        <v>2596</v>
+      </c>
+      <c r="I1184" t="str">
+        <f>_xlfn.CONCAT($H$1,H1184,$I$1,H1184,$J$1)</f>
+        <v>var crdae_networkmanagertotal = $("#crdae_networkmanagertotal").val();</v>
+      </c>
+      <c r="J1184" t="str">
+        <f>_xlfn.CONCAT($L$1,H1184,$K$1,H1184,"),")</f>
+        <v>"crdae_networkmanagertotal": Number(crdae_networkmanagertotal),</v>
+      </c>
+      <c r="L1184" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_networkmanagertotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_networkmanagertotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1185">
+        <v>62</v>
+      </c>
+      <c r="D1185" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F1185" s="2"/>
+      <c r="G1185">
+        <v>13</v>
+      </c>
+      <c r="H1185" s="26" t="s">
+        <v>2597</v>
+      </c>
+      <c r="I1185" t="str">
+        <f>_xlfn.CONCAT($H$1,H1185,$I$1,H1185,$J$1)</f>
+        <v>var crdae_officeopcopierleasepcsprintersbudget = $("#crdae_officeopcopierleasepcsprintersbudget").val();</v>
+      </c>
+      <c r="J1185" t="str">
+        <f>_xlfn.CONCAT($L$1,H1185,$K$1,H1185,"),")</f>
+        <v>"crdae_officeopcopierleasepcsprintersbudget": Number(crdae_officeopcopierleasepcsprintersbudget),</v>
+      </c>
+      <c r="L1185" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_officeopcopierleasepcsprintersbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_officeopcopierleasepcsprintersbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1186" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C1186">
+        <v>94</v>
+      </c>
+      <c r="D1186" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="F1186" s="2"/>
+      <c r="G1186">
+        <v>45</v>
+      </c>
+      <c r="H1186" s="26" t="s">
+        <v>2598</v>
+      </c>
+      <c r="I1186" t="str">
+        <f>_xlfn.CONCAT($H$1,H1186,$I$1,H1186,$J$1)</f>
+        <v>var crdae_officeopcopierleasepcsprinterscurr = $("#crdae_officeopcopierleasepcsprinterscurr").val();</v>
+      </c>
+      <c r="J1186" t="str">
+        <f>_xlfn.CONCAT($L$1,H1186,$K$1,H1186,"),")</f>
+        <v>"crdae_officeopcopierleasepcsprinterscurr": Number(crdae_officeopcopierleasepcsprinterscurr),</v>
+      </c>
+      <c r="L1186" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_officeopcopierleasepcsprinterscurr"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_officeopcopierleasepcsprinterscurr}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1187" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C1187">
+        <v>158</v>
+      </c>
+      <c r="D1187" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="F1187" s="2"/>
+      <c r="G1187">
+        <v>109</v>
+      </c>
+      <c r="H1187" s="26" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I1187" t="str">
+        <f>_xlfn.CONCAT($H$1,H1187,$I$1,H1187,$J$1)</f>
+        <v>var crdae_officeopcopierleasepcsprintersfur = $("#crdae_officeopcopierleasepcsprintersfur").val();</v>
+      </c>
+      <c r="J1187" t="str">
+        <f>_xlfn.CONCAT($L$1,H1187,$K$1,H1187,"),")</f>
+        <v>"crdae_officeopcopierleasepcsprintersfur": Number(crdae_officeopcopierleasepcsprintersfur),</v>
+      </c>
+      <c r="L1187" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_officeopcopierleasepcsprintersfur"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_officeopcopierleasepcsprintersfur}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1188" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1188">
+        <v>126</v>
+      </c>
+      <c r="D1188" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F1188" s="2"/>
+      <c r="G1188">
+        <v>77</v>
+      </c>
+      <c r="H1188" s="26" t="s">
+        <v>2600</v>
+      </c>
+      <c r="I1188" t="str">
+        <f>_xlfn.CONCAT($H$1,H1188,$I$1,H1188,$J$1)</f>
+        <v>var crdae_officeopcopierleasepcsprinterstot = $("#crdae_officeopcopierleasepcsprinterstot").val();</v>
+      </c>
+      <c r="J1188" t="str">
+        <f>_xlfn.CONCAT($L$1,H1188,$K$1,H1188,"),")</f>
+        <v>"crdae_officeopcopierleasepcsprinterstot": Number(crdae_officeopcopierleasepcsprinterstot),</v>
+      </c>
+      <c r="L1188" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_officeopcopierleasepcsprinterstot"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_officeopcopierleasepcsprinterstot}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1189">
+        <v>67</v>
+      </c>
+      <c r="D1189" s="2" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1189" s="2"/>
+      <c r="G1189">
+        <v>18</v>
+      </c>
+      <c r="H1189" s="26" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I1189" t="str">
+        <f>_xlfn.CONCAT($H$1,H1189,$I$1,H1189,$J$1)</f>
+        <v>var crdae_officesuppliesinctrainingequipmtlbud = $("#crdae_officesuppliesinctrainingequipmtlbud").val();</v>
+      </c>
+      <c r="J1189" t="str">
+        <f>_xlfn.CONCAT($L$1,H1189,$K$1,H1189,"),")</f>
+        <v>"crdae_officesuppliesinctrainingequipmtlbud": Number(crdae_officesuppliesinctrainingequipmtlbud),</v>
+      </c>
+      <c r="L1189" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_officesuppliesinctrainingequipmtlbud"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_officesuppliesinctrainingequipmtlbud}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1190" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C1190">
+        <v>99</v>
+      </c>
+      <c r="D1190" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F1190" s="2"/>
+      <c r="G1190">
+        <v>50</v>
+      </c>
+      <c r="H1190" s="26" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I1190" t="str">
+        <f>_xlfn.CONCAT($H$1,H1190,$I$1,H1190,$J$1)</f>
+        <v>var crdae_officesuppliesinctrainingequipmtlcurr = $("#crdae_officesuppliesinctrainingequipmtlcurr").val();</v>
+      </c>
+      <c r="J1190" t="str">
+        <f>_xlfn.CONCAT($L$1,H1190,$K$1,H1190,"),")</f>
+        <v>"crdae_officesuppliesinctrainingequipmtlcurr": Number(crdae_officesuppliesinctrainingequipmtlcurr),</v>
+      </c>
+      <c r="L1190" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_officesuppliesinctrainingequipmtlcurr"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_officesuppliesinctrainingequipmtlcurr}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1191" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C1191">
+        <v>163</v>
+      </c>
+      <c r="D1191" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F1191" s="2"/>
+      <c r="G1191">
+        <v>114</v>
+      </c>
+      <c r="H1191" s="26" t="s">
+        <v>2603</v>
+      </c>
+      <c r="I1191" t="str">
+        <f>_xlfn.CONCAT($H$1,H1191,$I$1,H1191,$J$1)</f>
+        <v>var crdae_officesuppliesinctrainingequipmtlfur = $("#crdae_officesuppliesinctrainingequipmtlfur").val();</v>
+      </c>
+      <c r="J1191" t="str">
+        <f>_xlfn.CONCAT($L$1,H1191,$K$1,H1191,"),")</f>
+        <v>"crdae_officesuppliesinctrainingequipmtlfur": Number(crdae_officesuppliesinctrainingequipmtlfur),</v>
+      </c>
+      <c r="L1191" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_officesuppliesinctrainingequipmtlfur"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_officesuppliesinctrainingequipmtlfur}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1192" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C1192">
+        <v>131</v>
+      </c>
+      <c r="D1192" s="2" t="s">
+        <v>2480</v>
+      </c>
+      <c r="F1192" s="2"/>
+      <c r="G1192">
+        <v>82</v>
+      </c>
+      <c r="H1192" s="26" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I1192" t="str">
+        <f>_xlfn.CONCAT($H$1,H1192,$I$1,H1192,$J$1)</f>
+        <v>var crdae_officesuppliesinctrainingequipmtltot = $("#crdae_officesuppliesinctrainingequipmtltot").val();</v>
+      </c>
+      <c r="J1192" t="str">
+        <f>_xlfn.CONCAT($L$1,H1192,$K$1,H1192,"),")</f>
+        <v>"crdae_officesuppliesinctrainingequipmtltot": Number(crdae_officesuppliesinctrainingequipmtltot),</v>
+      </c>
+      <c r="L1192" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_officesuppliesinctrainingequipmtltot"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_officesuppliesinctrainingequipmtltot}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1193">
+        <v>79</v>
+      </c>
+      <c r="D1193" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F1193" s="2"/>
+      <c r="G1193">
+        <v>30</v>
+      </c>
+      <c r="H1193" s="27" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I1193" t="str">
+        <f>_xlfn.CONCAT($H$1,H1193,$I$1,H1193,$J$1)</f>
+        <v>var crdae_prepostrelwomenscasemgmtcenterfrcbud = $("#crdae_prepostrelwomenscasemgmtcenterfrcbud").val();</v>
+      </c>
+      <c r="J1193" t="str">
+        <f>_xlfn.CONCAT($L$1,H1193,$K$1,H1193,"),")</f>
+        <v>"crdae_prepostrelwomenscasemgmtcenterfrcbud": Number(crdae_prepostrelwomenscasemgmtcenterfrcbud),</v>
+      </c>
+      <c r="L1193" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_prepostrelwomenscasemgmtcenterfrcbud"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_prepostrelwomenscasemgmtcenterfrcbud}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1194" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C1194">
+        <v>111</v>
+      </c>
+      <c r="D1194" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F1194" s="2"/>
+      <c r="G1194">
+        <v>62</v>
+      </c>
+      <c r="H1194" s="26" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I1194" t="str">
+        <f>_xlfn.CONCAT($H$1,H1194,$I$1,H1194,$J$1)</f>
+        <v>var crdae_prepostrelwomenscasemgmtcenterfrccurr = $("#crdae_prepostrelwomenscasemgmtcenterfrccurr").val();</v>
+      </c>
+      <c r="J1194" t="str">
+        <f>_xlfn.CONCAT($L$1,H1194,$K$1,H1194,"),")</f>
+        <v>"crdae_prepostrelwomenscasemgmtcenterfrccurr": Number(crdae_prepostrelwomenscasemgmtcenterfrccurr),</v>
+      </c>
+      <c r="L1194" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_prepostrelwomenscasemgmtcenterfrccurr"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_prepostrelwomenscasemgmtcenterfrccurr}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1195" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C1195">
+        <v>175</v>
+      </c>
+      <c r="D1195" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="F1195" s="2"/>
+      <c r="G1195">
+        <v>126</v>
+      </c>
+      <c r="H1195" s="26" t="s">
+        <v>2607</v>
+      </c>
+      <c r="I1195" t="str">
+        <f>_xlfn.CONCAT($H$1,H1195,$I$1,H1195,$J$1)</f>
+        <v>var crdae_prepostrelwomenscasemgmtcenterfrcfur = $("#crdae_prepostrelwomenscasemgmtcenterfrcfur").val();</v>
+      </c>
+      <c r="J1195" t="str">
+        <f>_xlfn.CONCAT($L$1,H1195,$K$1,H1195,"),")</f>
+        <v>"crdae_prepostrelwomenscasemgmtcenterfrcfur": Number(crdae_prepostrelwomenscasemgmtcenterfrcfur),</v>
+      </c>
+      <c r="L1195" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_prepostrelwomenscasemgmtcenterfrcfur"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_prepostrelwomenscasemgmtcenterfrcfur}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1196" s="2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C1196">
+        <v>143</v>
+      </c>
+      <c r="D1196" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F1196" s="2"/>
+      <c r="G1196">
+        <v>94</v>
+      </c>
+      <c r="H1196" s="26" t="s">
+        <v>2608</v>
+      </c>
+      <c r="I1196" t="str">
+        <f>_xlfn.CONCAT($H$1,H1196,$I$1,H1196,$J$1)</f>
+        <v>var crdae_prepostrelwomenscasemgmtcenterfrctot = $("#crdae_prepostrelwomenscasemgmtcenterfrctot").val();</v>
+      </c>
+      <c r="J1196" t="str">
+        <f>_xlfn.CONCAT($L$1,H1196,$K$1,H1196,"),")</f>
+        <v>"crdae_prepostrelwomenscasemgmtcenterfrctot": Number(crdae_prepostrelwomenscasemgmtcenterfrctot),</v>
+      </c>
+      <c r="L1196" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_prepostrelwomenscasemgmtcenterfrctot"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_prepostrelwomenscasemgmtcenterfrctot}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1197">
+        <v>66</v>
+      </c>
+      <c r="D1197" s="2" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F1197" s="2"/>
+      <c r="G1197">
+        <v>17</v>
+      </c>
+      <c r="H1197" s="26" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I1197" t="str">
+        <f>_xlfn.CONCAT($H$1,H1197,$I$1,H1197,$J$1)</f>
+        <v>var crdae_printingbudget = $("#crdae_printingbudget").val();</v>
+      </c>
+      <c r="J1197" t="str">
+        <f>_xlfn.CONCAT($L$1,H1197,$K$1,H1197,"),")</f>
+        <v>"crdae_printingbudget": Number(crdae_printingbudget),</v>
+      </c>
+      <c r="L1197" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_printingbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_printingbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1198" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C1198">
+        <v>98</v>
+      </c>
+      <c r="D1198" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F1198" s="2"/>
+      <c r="G1198">
+        <v>49</v>
+      </c>
+      <c r="H1198" s="26" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I1198" t="str">
+        <f>_xlfn.CONCAT($H$1,H1198,$I$1,H1198,$J$1)</f>
+        <v>var crdae_printingcurrent = $("#crdae_printingcurrent").val();</v>
+      </c>
+      <c r="J1198" t="str">
+        <f>_xlfn.CONCAT($L$1,H1198,$K$1,H1198,"),")</f>
+        <v>"crdae_printingcurrent": Number(crdae_printingcurrent),</v>
+      </c>
+      <c r="L1198" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_printingcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_printingcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1199" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C1199">
+        <v>162</v>
+      </c>
+      <c r="D1199" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F1199" s="2"/>
+      <c r="G1199">
+        <v>113</v>
+      </c>
+      <c r="H1199" s="26" t="s">
+        <v>2611</v>
+      </c>
+      <c r="I1199" t="str">
+        <f>_xlfn.CONCAT($H$1,H1199,$I$1,H1199,$J$1)</f>
+        <v>var crdae_printingfurther = $("#crdae_printingfurther").val();</v>
+      </c>
+      <c r="J1199" t="str">
+        <f>_xlfn.CONCAT($L$1,H1199,$K$1,H1199,"),")</f>
+        <v>"crdae_printingfurther": Number(crdae_printingfurther),</v>
+      </c>
+      <c r="L1199" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_printingfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_printingfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1200" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C1200">
+        <v>130</v>
+      </c>
+      <c r="D1200" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F1200" s="2"/>
+      <c r="G1200">
+        <v>81</v>
+      </c>
+      <c r="H1200" s="26" t="s">
+        <v>2612</v>
+      </c>
+      <c r="I1200" t="str">
+        <f>_xlfn.CONCAT($H$1,H1200,$I$1,H1200,$J$1)</f>
+        <v>var crdae_printingtotal = $("#crdae_printingtotal").val();</v>
+      </c>
+      <c r="J1200" t="str">
+        <f>_xlfn.CONCAT($L$1,H1200,$K$1,H1200,"),")</f>
+        <v>"crdae_printingtotal": Number(crdae_printingtotal),</v>
+      </c>
+      <c r="L1200" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_printingtotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_printingtotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
         <v>2432</v>
       </c>
-      <c r="B1117" s="2" t="s">
+      <c r="B1201" s="2" t="s">
         <v>2312</v>
       </c>
-      <c r="C1117">
+      <c r="C1201">
         <v>50</v>
       </c>
-      <c r="D1117" s="2" t="s">
+      <c r="D1201" s="2" t="s">
         <v>2312</v>
       </c>
-      <c r="F1117" s="2"/>
-      <c r="H1117" s="26" t="s">
+      <c r="F1201" s="2"/>
+      <c r="G1201">
+        <v>1</v>
+      </c>
+      <c r="H1201" s="26" t="s">
         <v>2613</v>
       </c>
-      <c r="I1117" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1118" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B1118" s="2" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C1118">
+      <c r="I1201" t="str">
+        <f>_xlfn.CONCAT($H$1,H1201,$I$1,H1201,$J$1)</f>
+        <v>var crdae_programdirectorbudget = $("#crdae_programdirectorbudget").val();</v>
+      </c>
+      <c r="J1201" t="str">
+        <f>_xlfn.CONCAT($L$1,H1201,$K$1,H1201,"),")</f>
+        <v>"crdae_programdirectorbudget": Number(crdae_programdirectorbudget),</v>
+      </c>
+      <c r="L1201" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_programdirectorbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_programdirectorbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1202" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C1202">
+        <v>82</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F1202" s="2"/>
+      <c r="G1202">
+        <v>33</v>
+      </c>
+      <c r="H1202" s="26" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I1202" t="str">
+        <f>_xlfn.CONCAT($H$1,H1202,$I$1,H1202,$J$1)</f>
+        <v>var crdae_programdirectorcurrent = $("#crdae_programdirectorcurrent").val();</v>
+      </c>
+      <c r="J1202" t="str">
+        <f>_xlfn.CONCAT($L$1,H1202,$K$1,H1202,"),")</f>
+        <v>"crdae_programdirectorcurrent": Number(crdae_programdirectorcurrent),</v>
+      </c>
+      <c r="L1202" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_programdirectorcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_programdirectorcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1203" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C1203">
+        <v>146</v>
+      </c>
+      <c r="D1203" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F1203" s="2"/>
+      <c r="G1203">
+        <v>97</v>
+      </c>
+      <c r="H1203" s="26" t="s">
+        <v>2615</v>
+      </c>
+      <c r="I1203" t="str">
+        <f>_xlfn.CONCAT($H$1,H1203,$I$1,H1203,$J$1)</f>
+        <v>var crdae_programdirectorfurther = $("#crdae_programdirectorfurther").val();</v>
+      </c>
+      <c r="J1203" t="str">
+        <f>_xlfn.CONCAT($L$1,H1203,$K$1,H1203,"),")</f>
+        <v>"crdae_programdirectorfurther": Number(crdae_programdirectorfurther),</v>
+      </c>
+      <c r="L1203" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_programdirectorfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_programdirectorfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1204" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C1204">
+        <v>114</v>
+      </c>
+      <c r="D1204" s="2" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F1204" s="2"/>
+      <c r="G1204">
+        <v>65</v>
+      </c>
+      <c r="H1204" s="26" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I1204" t="str">
+        <f>_xlfn.CONCAT($H$1,H1204,$I$1,H1204,$J$1)</f>
+        <v>var crdae_programdirectortotal = $("#crdae_programdirectortotal").val();</v>
+      </c>
+      <c r="J1204" t="str">
+        <f>_xlfn.CONCAT($L$1,H1204,$K$1,H1204,"),")</f>
+        <v>"crdae_programdirectortotal": Number(crdae_programdirectortotal),</v>
+      </c>
+      <c r="L1204" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_programdirectortotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_programdirectortotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1205" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C1205">
+        <v>78</v>
+      </c>
+      <c r="D1205" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F1205" s="2"/>
+      <c r="G1205">
+        <v>29</v>
+      </c>
+      <c r="H1205" s="26" t="s">
+        <v>2617</v>
+      </c>
+      <c r="I1205" t="str">
+        <f>_xlfn.CONCAT($H$1,H1205,$I$1,H1205,$J$1)</f>
+        <v>var crdae_specvoctrainingfastbudget = $("#crdae_specvoctrainingfastbudget").val();</v>
+      </c>
+      <c r="J1205" t="str">
+        <f>_xlfn.CONCAT($L$1,H1205,$K$1,H1205,"),")</f>
+        <v>"crdae_specvoctrainingfastbudget": Number(crdae_specvoctrainingfastbudget),</v>
+      </c>
+      <c r="L1205" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_specvoctrainingfastbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_specvoctrainingfastbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1206" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C1206">
+        <v>110</v>
+      </c>
+      <c r="D1206" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F1206" s="2"/>
+      <c r="G1206">
+        <v>61</v>
+      </c>
+      <c r="H1206" s="26" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I1206" t="str">
+        <f>_xlfn.CONCAT($H$1,H1206,$I$1,H1206,$J$1)</f>
+        <v>var crdae_specvoctrainingfastcurrent = $("#crdae_specvoctrainingfastcurrent").val();</v>
+      </c>
+      <c r="J1206" t="str">
+        <f>_xlfn.CONCAT($L$1,H1206,$K$1,H1206,"),")</f>
+        <v>"crdae_specvoctrainingfastcurrent": Number(crdae_specvoctrainingfastcurrent),</v>
+      </c>
+      <c r="L1206" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_specvoctrainingfastcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_specvoctrainingfastcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1207" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C1207">
+        <v>174</v>
+      </c>
+      <c r="D1207" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F1207" s="2"/>
+      <c r="G1207">
+        <v>125</v>
+      </c>
+      <c r="H1207" s="26" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I1207" t="str">
+        <f>_xlfn.CONCAT($H$1,H1207,$I$1,H1207,$J$1)</f>
+        <v>var crdae_specvoctrainingfastfurther = $("#crdae_specvoctrainingfastfurther").val();</v>
+      </c>
+      <c r="J1207" t="str">
+        <f>_xlfn.CONCAT($L$1,H1207,$K$1,H1207,"),")</f>
+        <v>"crdae_specvoctrainingfastfurther": Number(crdae_specvoctrainingfastfurther),</v>
+      </c>
+      <c r="L1207" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_specvoctrainingfastfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_specvoctrainingfastfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1208" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1208">
+        <v>142</v>
+      </c>
+      <c r="D1208" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F1208" s="2"/>
+      <c r="G1208">
+        <v>93</v>
+      </c>
+      <c r="H1208" s="26" t="s">
+        <v>2491</v>
+      </c>
+      <c r="I1208" t="str">
+        <f>_xlfn.CONCAT($H$1,H1208,$I$1,H1208,$J$1)</f>
+        <v>var crdae_specvoctrainingfasttotal = $("#crdae_specvoctrainingfasttotal").val();</v>
+      </c>
+      <c r="J1208" t="str">
+        <f>_xlfn.CONCAT($L$1,H1208,$K$1,H1208,"),")</f>
+        <v>"crdae_specvoctrainingfasttotal": Number(crdae_specvoctrainingfasttotal),</v>
+      </c>
+      <c r="L1208" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_specvoctrainingfasttotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_specvoctrainingfasttotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1209" s="40" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1209" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C1209">
+        <v>75</v>
+      </c>
+      <c r="D1209" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F1209" s="2"/>
+      <c r="G1209">
+        <v>26</v>
+      </c>
+      <c r="H1209" s="26" t="s">
+        <v>2492</v>
+      </c>
+      <c r="I1209" t="str">
+        <f>_xlfn.CONCAT($H$1,H1209,$I$1,H1209,$J$1)</f>
+        <v>var crdae_totalexpensesbudget = $("#crdae_totalexpensesbudget").val();</v>
+      </c>
+      <c r="J1209" t="str">
+        <f>_xlfn.CONCAT($L$1,H1209,$K$1,H1209,"),")</f>
+        <v>"crdae_totalexpensesbudget": Number(crdae_totalexpensesbudget),</v>
+      </c>
+      <c r="L1209" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalexpensesbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalexpensesbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1210" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C1210">
+        <v>107</v>
+      </c>
+      <c r="D1210" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F1210" s="2"/>
+      <c r="G1210">
+        <v>58</v>
+      </c>
+      <c r="H1210" s="26" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I1210" t="str">
+        <f>_xlfn.CONCAT($H$1,H1210,$I$1,H1210,$J$1)</f>
+        <v>var crdae_totalexpensescurrent = $("#crdae_totalexpensescurrent").val();</v>
+      </c>
+      <c r="J1210" t="str">
+        <f>_xlfn.CONCAT($L$1,H1210,$K$1,H1210,"),")</f>
+        <v>"crdae_totalexpensescurrent": Number(crdae_totalexpensescurrent),</v>
+      </c>
+      <c r="L1210" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalexpensescurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalexpensescurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1211" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C1211">
+        <v>171</v>
+      </c>
+      <c r="D1211" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F1211" s="2"/>
+      <c r="G1211">
+        <v>122</v>
+      </c>
+      <c r="H1211" s="26" t="s">
+        <v>2494</v>
+      </c>
+      <c r="I1211" t="str">
+        <f>_xlfn.CONCAT($H$1,H1211,$I$1,H1211,$J$1)</f>
+        <v>var crdae_totalexpensesfurther = $("#crdae_totalexpensesfurther").val();</v>
+      </c>
+      <c r="J1211" t="str">
+        <f>_xlfn.CONCAT($L$1,H1211,$K$1,H1211,"),")</f>
+        <v>"crdae_totalexpensesfurther": Number(crdae_totalexpensesfurther),</v>
+      </c>
+      <c r="L1211" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalexpensesfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalexpensesfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1212" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1212">
+        <v>139</v>
+      </c>
+      <c r="D1212" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F1212" s="2"/>
+      <c r="G1212">
+        <v>90</v>
+      </c>
+      <c r="H1212" s="26" t="s">
+        <v>2495</v>
+      </c>
+      <c r="I1212" t="str">
+        <f>_xlfn.CONCAT($H$1,H1212,$I$1,H1212,$J$1)</f>
+        <v>var crdae_totalexpensestotal = $("#crdae_totalexpensestotal").val();</v>
+      </c>
+      <c r="J1212" t="str">
+        <f>_xlfn.CONCAT($L$1,H1212,$K$1,H1212,"),")</f>
+        <v>"crdae_totalexpensestotal": Number(crdae_totalexpensestotal),</v>
+      </c>
+      <c r="L1212" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalexpensestotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalexpensestotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1213" s="39" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1213" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C1213">
+        <v>72</v>
+      </c>
+      <c r="D1213" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F1213" s="2"/>
+      <c r="G1213">
+        <v>23</v>
+      </c>
+      <c r="H1213" s="26" t="s">
+        <v>2496</v>
+      </c>
+      <c r="I1213" t="str">
+        <f>_xlfn.CONCAT($H$1,H1213,$I$1,H1213,$J$1)</f>
+        <v>var crdae_totalopsbudget = $("#crdae_totalopsbudget").val();</v>
+      </c>
+      <c r="J1213" t="str">
+        <f>_xlfn.CONCAT($L$1,H1213,$K$1,H1213,"),")</f>
+        <v>"crdae_totalopsbudget": Number(crdae_totalopsbudget),</v>
+      </c>
+      <c r="L1213" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalopsbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalopsbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1214" s="2" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C1214">
+        <v>104</v>
+      </c>
+      <c r="D1214" s="2" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F1214" s="2"/>
+      <c r="G1214">
+        <v>55</v>
+      </c>
+      <c r="H1214" s="26" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I1214" t="str">
+        <f>_xlfn.CONCAT($H$1,H1214,$I$1,H1214,$J$1)</f>
+        <v>var crdae_totalopscurrent = $("#crdae_totalopscurrent").val();</v>
+      </c>
+      <c r="J1214" t="str">
+        <f>_xlfn.CONCAT($L$1,H1214,$K$1,H1214,"),")</f>
+        <v>"crdae_totalopscurrent": Number(crdae_totalopscurrent),</v>
+      </c>
+      <c r="L1214" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalopscurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalopscurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1215" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C1215">
+        <v>168</v>
+      </c>
+      <c r="D1215" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F1215" s="2"/>
+      <c r="G1215">
+        <v>119</v>
+      </c>
+      <c r="H1215" s="26" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I1215" t="str">
+        <f>_xlfn.CONCAT($H$1,H1215,$I$1,H1215,$J$1)</f>
+        <v>var crdae_totalopsfurther = $("#crdae_totalopsfurther").val();</v>
+      </c>
+      <c r="J1215" t="str">
+        <f>_xlfn.CONCAT($L$1,H1215,$K$1,H1215,"),")</f>
+        <v>"crdae_totalopsfurther": Number(crdae_totalopsfurther),</v>
+      </c>
+      <c r="L1215" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalopsfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalopsfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1216" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C1216">
+        <v>136</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F1216" s="2"/>
+      <c r="G1216">
+        <v>87</v>
+      </c>
+      <c r="H1216" s="26" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1216" t="str">
+        <f>_xlfn.CONCAT($H$1,H1216,$I$1,H1216,$J$1)</f>
+        <v>var crdae_totalopstotal = $("#crdae_totalopstotal").val();</v>
+      </c>
+      <c r="J1216" t="str">
+        <f>_xlfn.CONCAT($L$1,H1216,$K$1,H1216,"),")</f>
+        <v>"crdae_totalopstotal": Number(crdae_totalopstotal),</v>
+      </c>
+      <c r="L1216" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalopstotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalopstotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1217" s="39" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1217" s="2" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C1217">
+        <v>73</v>
+      </c>
+      <c r="D1217" s="2" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F1217" s="2"/>
+      <c r="G1217">
+        <v>24</v>
+      </c>
+      <c r="H1217" s="26" t="s">
+        <v>2500</v>
+      </c>
+      <c r="I1217" t="str">
+        <f>_xlfn.CONCAT($H$1,H1217,$I$1,H1217,$J$1)</f>
+        <v>var crdae_totalpersonnelopsbudget = $("#crdae_totalpersonnelopsbudget").val();</v>
+      </c>
+      <c r="J1217" t="str">
+        <f>_xlfn.CONCAT($L$1,H1217,$K$1,H1217,"),")</f>
+        <v>"crdae_totalpersonnelopsbudget": Number(crdae_totalpersonnelopsbudget),</v>
+      </c>
+      <c r="L1217" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalpersonnelopsbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalpersonnelopsbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1218" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1218">
+        <v>105</v>
+      </c>
+      <c r="D1218" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F1218" s="2"/>
+      <c r="G1218">
+        <v>56</v>
+      </c>
+      <c r="H1218" s="26" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I1218" t="str">
+        <f>_xlfn.CONCAT($H$1,H1218,$I$1,H1218,$J$1)</f>
+        <v>var crdae_totalpersonnelopscurrent = $("#crdae_totalpersonnelopscurrent").val();</v>
+      </c>
+      <c r="J1218" t="str">
+        <f>_xlfn.CONCAT($L$1,H1218,$K$1,H1218,"),")</f>
+        <v>"crdae_totalpersonnelopscurrent": Number(crdae_totalpersonnelopscurrent),</v>
+      </c>
+      <c r="L1218" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalpersonnelopscurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalpersonnelopscurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1219" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C1219">
+        <v>169</v>
+      </c>
+      <c r="D1219" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F1219" s="2"/>
+      <c r="G1219">
+        <v>120</v>
+      </c>
+      <c r="H1219" s="26" t="s">
+        <v>2502</v>
+      </c>
+      <c r="I1219" t="str">
+        <f>_xlfn.CONCAT($H$1,H1219,$I$1,H1219,$J$1)</f>
+        <v>var crdae_totalpersonnelopsfurther = $("#crdae_totalpersonnelopsfurther").val();</v>
+      </c>
+      <c r="J1219" t="str">
+        <f>_xlfn.CONCAT($L$1,H1219,$K$1,H1219,"),")</f>
+        <v>"crdae_totalpersonnelopsfurther": Number(crdae_totalpersonnelopsfurther),</v>
+      </c>
+      <c r="L1219" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalpersonnelopsfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalpersonnelopsfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1220" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1220">
+        <v>137</v>
+      </c>
+      <c r="D1220" s="2" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F1220" s="2"/>
+      <c r="G1220">
+        <v>88</v>
+      </c>
+      <c r="H1220" s="26" t="s">
+        <v>2503</v>
+      </c>
+      <c r="I1220" t="str">
+        <f>_xlfn.CONCAT($H$1,H1220,$I$1,H1220,$J$1)</f>
+        <v>var crdae_totalpersonnelopstotal = $("#crdae_totalpersonnelopstotal").val();</v>
+      </c>
+      <c r="J1220" t="str">
+        <f>_xlfn.CONCAT($L$1,H1220,$K$1,H1220,"),")</f>
+        <v>"crdae_totalpersonnelopstotal": Number(crdae_totalpersonnelopstotal),</v>
+      </c>
+      <c r="L1220" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalpersonnelopstotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalpersonnelopstotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1221" s="39" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1221" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1221">
+        <v>59</v>
+      </c>
+      <c r="D1221" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="F1221" s="2"/>
+      <c r="G1221">
+        <v>10</v>
+      </c>
+      <c r="H1221" s="26" t="s">
+        <v>2504</v>
+      </c>
+      <c r="I1221" t="str">
+        <f>_xlfn.CONCAT($H$1,H1221,$I$1,H1221,$J$1)</f>
+        <v>var crdae_totalsalariesbenefitsbudget = $("#crdae_totalsalariesbenefitsbudget").val();</v>
+      </c>
+      <c r="J1221" t="str">
+        <f>_xlfn.CONCAT($L$1,H1221,$K$1,H1221,"),")</f>
+        <v>"crdae_totalsalariesbenefitsbudget": Number(crdae_totalsalariesbenefitsbudget),</v>
+      </c>
+      <c r="L1221" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsalariesbenefitsbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsalariesbenefitsbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1222" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C1222">
+        <v>91</v>
+      </c>
+      <c r="D1222" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F1222" s="2"/>
+      <c r="G1222">
+        <v>42</v>
+      </c>
+      <c r="H1222" s="26" t="s">
+        <v>2505</v>
+      </c>
+      <c r="I1222" t="str">
+        <f>_xlfn.CONCAT($H$1,H1222,$I$1,H1222,$J$1)</f>
+        <v>var crdae_totalsalariesbenefitscurrent = $("#crdae_totalsalariesbenefitscurrent").val();</v>
+      </c>
+      <c r="J1222" t="str">
+        <f>_xlfn.CONCAT($L$1,H1222,$K$1,H1222,"),")</f>
+        <v>"crdae_totalsalariesbenefitscurrent": Number(crdae_totalsalariesbenefitscurrent),</v>
+      </c>
+      <c r="L1222" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsalariesbenefitscurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsalariesbenefitscurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1223" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C1223">
+        <v>155</v>
+      </c>
+      <c r="D1223" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F1223" s="2"/>
+      <c r="G1223">
+        <v>106</v>
+      </c>
+      <c r="H1223" s="26" t="s">
+        <v>2506</v>
+      </c>
+      <c r="I1223" t="str">
+        <f>_xlfn.CONCAT($H$1,H1223,$I$1,H1223,$J$1)</f>
+        <v>var crdae_totalsalariesbenefitsfurther = $("#crdae_totalsalariesbenefitsfurther").val();</v>
+      </c>
+      <c r="J1223" t="str">
+        <f>_xlfn.CONCAT($L$1,H1223,$K$1,H1223,"),")</f>
+        <v>"crdae_totalsalariesbenefitsfurther": Number(crdae_totalsalariesbenefitsfurther),</v>
+      </c>
+      <c r="L1223" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsalariesbenefitsfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsalariesbenefitsfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1224" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C1224">
+        <v>123</v>
+      </c>
+      <c r="D1224" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1224" s="2"/>
+      <c r="G1224">
+        <v>74</v>
+      </c>
+      <c r="H1224" s="26" t="s">
+        <v>2507</v>
+      </c>
+      <c r="I1224" t="str">
+        <f>_xlfn.CONCAT($H$1,H1224,$I$1,H1224,$J$1)</f>
+        <v>var crdae_totalsalariesbenefitstotal = $("#crdae_totalsalariesbenefitstotal").val();</v>
+      </c>
+      <c r="J1224" t="str">
+        <f>_xlfn.CONCAT($L$1,H1224,$K$1,H1224,"),")</f>
+        <v>"crdae_totalsalariesbenefitstotal": Number(crdae_totalsalariesbenefitstotal),</v>
+      </c>
+      <c r="L1224" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsalariesbenefitstotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsalariesbenefitstotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1225" s="39" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1225" s="2" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1225">
+        <v>57</v>
+      </c>
+      <c r="D1225" s="2" t="s">
+        <v>2317</v>
+      </c>
+      <c r="F1225" s="2"/>
+      <c r="G1225">
+        <v>8</v>
+      </c>
+      <c r="H1225" s="26" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I1225" t="str">
+        <f>_xlfn.CONCAT($H$1,H1225,$I$1,H1225,$J$1)</f>
+        <v>var crdae_totalsalariesbudget = $("#crdae_totalsalariesbudget").val();</v>
+      </c>
+      <c r="J1225" t="str">
+        <f>_xlfn.CONCAT($L$1,H1225,$K$1,H1225,"),")</f>
+        <v>"crdae_totalsalariesbudget": Number(crdae_totalsalariesbudget),</v>
+      </c>
+      <c r="L1225" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsalariesbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsalariesbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1226" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C1226">
+        <v>89</v>
+      </c>
+      <c r="D1226" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F1226" s="2"/>
+      <c r="G1226">
+        <v>40</v>
+      </c>
+      <c r="H1226" s="26" t="s">
+        <v>2509</v>
+      </c>
+      <c r="I1226" t="str">
+        <f>_xlfn.CONCAT($H$1,H1226,$I$1,H1226,$J$1)</f>
+        <v>var crdae_totalsalariescurrent = $("#crdae_totalsalariescurrent").val();</v>
+      </c>
+      <c r="J1226" t="str">
+        <f>_xlfn.CONCAT($L$1,H1226,$K$1,H1226,"),")</f>
+        <v>"crdae_totalsalariescurrent": Number(crdae_totalsalariescurrent),</v>
+      </c>
+      <c r="L1226" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsalariescurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsalariescurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1227" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C1227">
+        <v>153</v>
+      </c>
+      <c r="D1227" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="F1227" s="2"/>
+      <c r="G1227">
+        <v>104</v>
+      </c>
+      <c r="H1227" s="26" t="s">
+        <v>2510</v>
+      </c>
+      <c r="I1227" t="str">
+        <f>_xlfn.CONCAT($H$1,H1227,$I$1,H1227,$J$1)</f>
+        <v>var crdae_totalsalariesfurther = $("#crdae_totalsalariesfurther").val();</v>
+      </c>
+      <c r="J1227" t="str">
+        <f>_xlfn.CONCAT($L$1,H1227,$K$1,H1227,"),")</f>
+        <v>"crdae_totalsalariesfurther": Number(crdae_totalsalariesfurther),</v>
+      </c>
+      <c r="L1227" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsalariesfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsalariesfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1228" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1228">
+        <v>121</v>
+      </c>
+      <c r="D1228" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F1228" s="2"/>
+      <c r="G1228">
+        <v>72</v>
+      </c>
+      <c r="H1228" s="26" t="s">
+        <v>2511</v>
+      </c>
+      <c r="I1228" t="str">
+        <f>_xlfn.CONCAT($H$1,H1228,$I$1,H1228,$J$1)</f>
+        <v>var crdae_totalsalariestotal = $("#crdae_totalsalariestotal").val();</v>
+      </c>
+      <c r="J1228" t="str">
+        <f>_xlfn.CONCAT($L$1,H1228,$K$1,H1228,"),")</f>
+        <v>"crdae_totalsalariestotal": Number(crdae_totalsalariestotal),</v>
+      </c>
+      <c r="L1228" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsalariestotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsalariestotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1229" s="39" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1229" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C1229">
+        <v>80</v>
+      </c>
+      <c r="D1229" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F1229" s="2"/>
+      <c r="G1229">
+        <v>31</v>
+      </c>
+      <c r="H1229" s="26" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I1229" t="str">
+        <f>_xlfn.CONCAT($H$1,H1229,$I$1,H1229,$J$1)</f>
+        <v>var crdae_totalsubcontractsbudget = $("#crdae_totalsubcontractsbudget").val();</v>
+      </c>
+      <c r="J1229" t="str">
+        <f>_xlfn.CONCAT($L$1,H1229,$K$1,H1229,"),")</f>
+        <v>"crdae_totalsubcontractsbudget": Number(crdae_totalsubcontractsbudget),</v>
+      </c>
+      <c r="L1229" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsubcontractsbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsubcontractsbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1230" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C1230">
+        <v>112</v>
+      </c>
+      <c r="D1230" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F1230" s="2"/>
+      <c r="G1230">
+        <v>63</v>
+      </c>
+      <c r="H1230" s="26" t="s">
+        <v>2513</v>
+      </c>
+      <c r="I1230" t="str">
+        <f>_xlfn.CONCAT($H$1,H1230,$I$1,H1230,$J$1)</f>
+        <v>var crdae_totalsubcontractscurrent = $("#crdae_totalsubcontractscurrent").val();</v>
+      </c>
+      <c r="J1230" t="str">
+        <f>_xlfn.CONCAT($L$1,H1230,$K$1,H1230,"),")</f>
+        <v>"crdae_totalsubcontractscurrent": Number(crdae_totalsubcontractscurrent),</v>
+      </c>
+      <c r="L1230" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsubcontractscurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsubcontractscurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1231" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C1231">
+        <v>176</v>
+      </c>
+      <c r="D1231" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F1231" s="2"/>
+      <c r="G1231">
+        <v>127</v>
+      </c>
+      <c r="H1231" s="26" t="s">
+        <v>2514</v>
+      </c>
+      <c r="I1231" t="str">
+        <f>_xlfn.CONCAT($H$1,H1231,$I$1,H1231,$J$1)</f>
+        <v>var crdae_totalsubcontractsfurther = $("#crdae_totalsubcontractsfurther").val();</v>
+      </c>
+      <c r="J1231" t="str">
+        <f>_xlfn.CONCAT($L$1,H1231,$K$1,H1231,"),")</f>
+        <v>"crdae_totalsubcontractsfurther": Number(crdae_totalsubcontractsfurther),</v>
+      </c>
+      <c r="L1231" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsubcontractsfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsubcontractsfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1232" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C1232">
+        <v>144</v>
+      </c>
+      <c r="D1232" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F1232" s="2"/>
+      <c r="G1232">
+        <v>95</v>
+      </c>
+      <c r="H1232" s="26" t="s">
+        <v>2515</v>
+      </c>
+      <c r="I1232" t="str">
+        <f>_xlfn.CONCAT($H$1,H1232,$I$1,H1232,$J$1)</f>
+        <v>var crdae_totalsubcontractstotal = $("#crdae_totalsubcontractstotal").val();</v>
+      </c>
+      <c r="J1232" t="str">
+        <f>_xlfn.CONCAT($L$1,H1232,$K$1,H1232,"),")</f>
+        <v>"crdae_totalsubcontractstotal": Number(crdae_totalsubcontractstotal),</v>
+      </c>
+      <c r="L1232" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_totalsubcontractstotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_totalsubcontractstotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1233" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C1233">
+        <v>68</v>
+      </c>
+      <c r="D1233" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F1233" s="2"/>
+      <c r="G1233">
+        <v>19</v>
+      </c>
+      <c r="H1233" s="26" t="s">
+        <v>2516</v>
+      </c>
+      <c r="I1233" t="str">
+        <f>_xlfn.CONCAT($H$1,H1233,$I$1,H1233,$J$1)</f>
+        <v>var crdae_trainingbudget = $("#crdae_trainingbudget").val();</v>
+      </c>
+      <c r="J1233" t="str">
+        <f>_xlfn.CONCAT($L$1,H1233,$K$1,H1233,"),")</f>
+        <v>"crdae_trainingbudget": Number(crdae_trainingbudget),</v>
+      </c>
+      <c r="L1233" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_trainingbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_trainingbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1234" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C1234">
+        <v>100</v>
+      </c>
+      <c r="D1234" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F1234" s="2"/>
+      <c r="G1234">
         <v>51</v>
       </c>
-      <c r="D1118" s="2" t="s">
-        <v>2313</v>
-      </c>
-      <c r="F1118" s="2"/>
-      <c r="H1118" s="26" t="s">
-        <v>2593</v>
-      </c>
-      <c r="I1118" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1119" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B1119" s="2" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C1119">
-        <v>52</v>
-      </c>
-      <c r="D1119" s="2" t="s">
-        <v>2462</v>
-      </c>
-      <c r="F1119" s="2"/>
-      <c r="H1119" s="26" t="s">
-        <v>2553</v>
-      </c>
-      <c r="I1119" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1120" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B1120" s="2" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C1120">
+      <c r="H1234" s="26" t="s">
+        <v>2517</v>
+      </c>
+      <c r="I1234" t="str">
+        <f>_xlfn.CONCAT($H$1,H1234,$I$1,H1234,$J$1)</f>
+        <v>var crdae_trainingcurrent = $("#crdae_trainingcurrent").val();</v>
+      </c>
+      <c r="J1234" t="str">
+        <f>_xlfn.CONCAT($L$1,H1234,$K$1,H1234,"),")</f>
+        <v>"crdae_trainingcurrent": Number(crdae_trainingcurrent),</v>
+      </c>
+      <c r="L1234" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_trainingcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_trainingcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1235" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C1235">
+        <v>164</v>
+      </c>
+      <c r="D1235" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F1235" s="2"/>
+      <c r="G1235">
+        <v>115</v>
+      </c>
+      <c r="H1235" s="26" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I1235" t="str">
+        <f>_xlfn.CONCAT($H$1,H1235,$I$1,H1235,$J$1)</f>
+        <v>var crdae_trainingfurther = $("#crdae_trainingfurther").val();</v>
+      </c>
+      <c r="J1235" t="str">
+        <f>_xlfn.CONCAT($L$1,H1235,$K$1,H1235,"),")</f>
+        <v>"crdae_trainingfurther": Number(crdae_trainingfurther),</v>
+      </c>
+      <c r="L1235" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_trainingfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_trainingfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1236" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C1236">
+        <v>132</v>
+      </c>
+      <c r="D1236" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F1236" s="2"/>
+      <c r="G1236">
+        <v>83</v>
+      </c>
+      <c r="H1236" s="26" t="s">
+        <v>2519</v>
+      </c>
+      <c r="I1236" t="str">
+        <f>_xlfn.CONCAT($H$1,H1236,$I$1,H1236,$J$1)</f>
+        <v>var crdae_trainingtotal = $("#crdae_trainingtotal").val();</v>
+      </c>
+      <c r="J1236" t="str">
+        <f>_xlfn.CONCAT($L$1,H1236,$K$1,H1236,"),")</f>
+        <v>"crdae_trainingtotal": Number(crdae_trainingtotal),</v>
+      </c>
+      <c r="L1236" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_trainingtotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_trainingtotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1237" s="2" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C1237">
+        <v>77</v>
+      </c>
+      <c r="D1237" s="2" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F1237" s="2"/>
+      <c r="G1237">
+        <v>28</v>
+      </c>
+      <c r="H1237" s="26" t="s">
+        <v>2520</v>
+      </c>
+      <c r="I1237" t="str">
+        <f>_xlfn.CONCAT($H$1,H1237,$I$1,H1237,$J$1)</f>
+        <v>var crdae_transitionalhousingmzshirlizbudget = $("#crdae_transitionalhousingmzshirlizbudget").val();</v>
+      </c>
+      <c r="J1237" t="str">
+        <f>_xlfn.CONCAT($L$1,H1237,$K$1,H1237,"),")</f>
+        <v>"crdae_transitionalhousingmzshirlizbudget": Number(crdae_transitionalhousingmzshirlizbudget),</v>
+      </c>
+      <c r="L1237" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_transitionalhousingmzshirlizbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_transitionalhousingmzshirlizbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1238" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C1238">
+        <v>109</v>
+      </c>
+      <c r="D1238" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F1238" s="2"/>
+      <c r="G1238">
+        <v>60</v>
+      </c>
+      <c r="H1238" s="26" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I1238" t="str">
+        <f>_xlfn.CONCAT($H$1,H1238,$I$1,H1238,$J$1)</f>
+        <v>var crdae_transitionalhousingmzshirlizcurrent = $("#crdae_transitionalhousingmzshirlizcurrent").val();</v>
+      </c>
+      <c r="J1238" t="str">
+        <f>_xlfn.CONCAT($L$1,H1238,$K$1,H1238,"),")</f>
+        <v>"crdae_transitionalhousingmzshirlizcurrent": Number(crdae_transitionalhousingmzshirlizcurrent),</v>
+      </c>
+      <c r="L1238" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_transitionalhousingmzshirlizcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_transitionalhousingmzshirlizcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1239" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C1239">
+        <v>173</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F1239" s="2"/>
+      <c r="G1239">
+        <v>124</v>
+      </c>
+      <c r="H1239" s="26" t="s">
+        <v>2522</v>
+      </c>
+      <c r="I1239" t="str">
+        <f>_xlfn.CONCAT($H$1,H1239,$I$1,H1239,$J$1)</f>
+        <v>var crdae_transitionalhousingmzshirlizfurther = $("#crdae_transitionalhousingmzshirlizfurther").val();</v>
+      </c>
+      <c r="J1239" t="str">
+        <f>_xlfn.CONCAT($L$1,H1239,$K$1,H1239,"),")</f>
+        <v>"crdae_transitionalhousingmzshirlizfurther": Number(crdae_transitionalhousingmzshirlizfurther),</v>
+      </c>
+      <c r="L1239" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_transitionalhousingmzshirlizfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_transitionalhousingmzshirlizfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1240" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1240">
+        <v>141</v>
+      </c>
+      <c r="D1240" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F1240" s="2"/>
+      <c r="G1240">
+        <v>92</v>
+      </c>
+      <c r="H1240" s="26" t="s">
+        <v>2523</v>
+      </c>
+      <c r="I1240" t="str">
+        <f>_xlfn.CONCAT($H$1,H1240,$I$1,H1240,$J$1)</f>
+        <v>var crdae_transitionalhousingmzshirliztotal = $("#crdae_transitionalhousingmzshirliztotal").val();</v>
+      </c>
+      <c r="J1240" t="str">
+        <f>_xlfn.CONCAT($L$1,H1240,$K$1,H1240,"),")</f>
+        <v>"crdae_transitionalhousingmzshirliztotal": Number(crdae_transitionalhousingmzshirliztotal),</v>
+      </c>
+      <c r="L1240" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_transitionalhousingmzshirliztotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_transitionalhousingmzshirliztotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1241" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C1241">
+        <v>70</v>
+      </c>
+      <c r="D1241" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F1241" s="2"/>
+      <c r="G1241">
+        <v>21</v>
+      </c>
+      <c r="H1241" s="26" t="s">
+        <v>2524</v>
+      </c>
+      <c r="I1241" t="str">
+        <f>_xlfn.CONCAT($H$1,H1241,$I$1,H1241,$J$1)</f>
+        <v>var crdae_travelbudget = $("#crdae_travelbudget").val();</v>
+      </c>
+      <c r="J1241" t="str">
+        <f>_xlfn.CONCAT($L$1,H1241,$K$1,H1241,"),")</f>
+        <v>"crdae_travelbudget": Number(crdae_travelbudget),</v>
+      </c>
+      <c r="L1241" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_travelbudget"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_travelbudget}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1242" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C1242">
+        <v>102</v>
+      </c>
+      <c r="D1242" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F1242" s="2"/>
+      <c r="G1242">
         <v>53</v>
       </c>
-      <c r="D1120" s="2" t="s">
-        <v>2463</v>
-      </c>
-      <c r="F1120" s="2"/>
-      <c r="H1120" s="26" t="s">
-        <v>2557</v>
-      </c>
-      <c r="I1120" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1121" t="s">
-        <v>2435</v>
-      </c>
-      <c r="B1121" s="2" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C1121">
-        <v>54</v>
-      </c>
-      <c r="D1121" s="2" t="s">
-        <v>2315</v>
-      </c>
-      <c r="F1121" s="2"/>
-      <c r="H1121" s="26" t="s">
-        <v>2486</v>
-      </c>
-      <c r="I1121" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1122" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B1122" s="2" t="s">
-        <v>2316</v>
-      </c>
-      <c r="C1122">
-        <v>55</v>
-      </c>
-      <c r="D1122" s="2" t="s">
-        <v>2316</v>
-      </c>
-      <c r="F1122" s="2"/>
-      <c r="H1122" s="26" t="s">
-        <v>2589</v>
-      </c>
-      <c r="I1122" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1123" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B1123" s="2" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C1123">
-        <v>56</v>
-      </c>
-      <c r="D1123" s="2" t="s">
-        <v>2464</v>
-      </c>
-      <c r="F1123" s="2"/>
-      <c r="H1123" s="26" t="s">
-        <v>2561</v>
-      </c>
-      <c r="I1123" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1124" s="39" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B1124" s="2" t="s">
-        <v>2317</v>
-      </c>
-      <c r="C1124">
-        <v>57</v>
-      </c>
-      <c r="D1124" s="2" t="s">
-        <v>2317</v>
-      </c>
-      <c r="F1124" s="2"/>
-      <c r="H1124" s="26" t="s">
-        <v>2508</v>
-      </c>
-      <c r="I1124" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1125" t="s">
-        <v>2438</v>
-      </c>
-      <c r="B1125" s="2" t="s">
-        <v>2318</v>
-      </c>
-      <c r="C1125">
-        <v>58</v>
-      </c>
-      <c r="D1125" s="2" t="s">
-        <v>2318</v>
-      </c>
-      <c r="F1125" s="2"/>
-      <c r="H1125" s="26" t="s">
-        <v>2565</v>
-      </c>
-      <c r="I1125" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1126" s="39" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B1126" s="2" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C1126">
-        <v>59</v>
-      </c>
-      <c r="D1126" s="2" t="s">
-        <v>2319</v>
-      </c>
-      <c r="F1126" s="2"/>
-      <c r="H1126" s="26" t="s">
-        <v>2504</v>
-      </c>
-      <c r="I1126" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1127" s="39" t="s">
-        <v>2440</v>
-      </c>
-      <c r="B1127" s="2" t="s">
-        <v>2320</v>
-      </c>
-      <c r="C1127">
-        <v>60</v>
-      </c>
-      <c r="D1127" s="2" t="s">
-        <v>2320</v>
-      </c>
-      <c r="F1127" s="2"/>
-      <c r="H1127" s="26" t="s">
-        <v>2569</v>
-      </c>
-      <c r="I1127" t="s">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1128" t="s">
-        <v>2441</v>
-      </c>
-      <c r="B1128" s="2" t="s">
-        <v>2321</v>
-      </c>
-      <c r="C1128">
-        <v>61</v>
-      </c>
-      <c r="D1128" s="2" t="s">
-        <v>2321</v>
-      </c>
-      <c r="F1128" s="2"/>
-      <c r="H1128" s="26" t="s">
-        <v>2537</v>
-      </c>
-      <c r="I1128" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1129" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B1129" s="2" t="s">
-        <v>2322</v>
-      </c>
-      <c r="C1129">
-        <v>62</v>
-      </c>
-      <c r="D1129" s="2" t="s">
-        <v>2322</v>
-      </c>
-      <c r="F1129" s="2"/>
-      <c r="H1129" s="26" t="s">
-        <v>2597</v>
-      </c>
-      <c r="I1129" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1130" t="s">
-        <v>2443</v>
-      </c>
-      <c r="B1130" s="2" t="s">
-        <v>2323</v>
-      </c>
-      <c r="C1130">
-        <v>63</v>
-      </c>
-      <c r="D1130" s="2" t="s">
-        <v>2323</v>
-      </c>
-      <c r="F1130" s="2"/>
-      <c r="H1130" s="26" t="s">
-        <v>2549</v>
-      </c>
-      <c r="I1130" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1131" t="s">
-        <v>2444</v>
-      </c>
-      <c r="B1131" s="2" t="s">
-        <v>2324</v>
-      </c>
-      <c r="C1131">
-        <v>64</v>
-      </c>
-      <c r="D1131" s="2" t="s">
-        <v>2324</v>
-      </c>
-      <c r="F1131" s="2"/>
-      <c r="H1131" s="26" t="s">
-        <v>2545</v>
-      </c>
-      <c r="I1131" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1132" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B1132" s="2" t="s">
-        <v>2325</v>
-      </c>
-      <c r="C1132">
-        <v>65</v>
-      </c>
-      <c r="D1132" s="2" t="s">
-        <v>2325</v>
-      </c>
-      <c r="F1132" s="2"/>
-      <c r="H1132" s="26" t="s">
-        <v>2585</v>
-      </c>
-      <c r="I1132" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1133" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B1133" s="2" t="s">
-        <v>2326</v>
-      </c>
-      <c r="C1133">
-        <v>66</v>
-      </c>
-      <c r="D1133" s="2" t="s">
-        <v>2326</v>
-      </c>
-      <c r="F1133" s="2"/>
-      <c r="H1133" s="26" t="s">
-        <v>2609</v>
-      </c>
-      <c r="I1133" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1134" t="s">
-        <v>2447</v>
-      </c>
-      <c r="B1134" s="2" t="s">
-        <v>2327</v>
-      </c>
-      <c r="C1134">
-        <v>67</v>
-      </c>
-      <c r="D1134" s="2" t="s">
-        <v>2528</v>
-      </c>
-      <c r="F1134" s="2"/>
-      <c r="H1134" s="26" t="s">
-        <v>2601</v>
-      </c>
-      <c r="I1134" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1135" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B1135" s="2" t="s">
-        <v>2328</v>
-      </c>
-      <c r="C1135">
-        <v>68</v>
-      </c>
-      <c r="D1135" s="2" t="s">
-        <v>2328</v>
-      </c>
-      <c r="F1135" s="2"/>
-      <c r="H1135" s="26" t="s">
-        <v>2516</v>
-      </c>
-      <c r="I1135" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1136" t="s">
-        <v>2449</v>
-      </c>
-      <c r="B1136" s="2" t="s">
-        <v>2329</v>
-      </c>
-      <c r="C1136">
-        <v>69</v>
-      </c>
-      <c r="D1136" s="2" t="s">
-        <v>2329</v>
-      </c>
-      <c r="F1136" s="2"/>
-      <c r="H1136" s="26" t="s">
-        <v>2541</v>
-      </c>
-      <c r="I1136" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1137" t="s">
-        <v>2450</v>
-      </c>
-      <c r="B1137" s="2" t="s">
-        <v>2330</v>
-      </c>
-      <c r="C1137">
-        <v>70</v>
-      </c>
-      <c r="D1137" s="2" t="s">
-        <v>2330</v>
-      </c>
-      <c r="F1137" s="2"/>
-      <c r="H1137" s="26" t="s">
-        <v>2524</v>
-      </c>
-      <c r="I1137" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1138" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B1138" s="2" t="s">
-        <v>2331</v>
-      </c>
-      <c r="C1138">
-        <v>71</v>
-      </c>
-      <c r="D1138" s="2" t="s">
-        <v>2331</v>
-      </c>
-      <c r="F1138" s="2"/>
-      <c r="H1138" s="26" t="s">
-        <v>2490</v>
-      </c>
-      <c r="I1138" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1139" s="39" t="s">
-        <v>2452</v>
-      </c>
-      <c r="B1139" s="2" t="s">
-        <v>2332</v>
-      </c>
-      <c r="C1139">
-        <v>72</v>
-      </c>
-      <c r="D1139" s="2" t="s">
-        <v>2332</v>
-      </c>
-      <c r="F1139" s="2"/>
-      <c r="H1139" s="26" t="s">
-        <v>2496</v>
-      </c>
-      <c r="I1139" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1140" s="39" t="s">
-        <v>2453</v>
-      </c>
-      <c r="B1140" s="2" t="s">
-        <v>2333</v>
-      </c>
-      <c r="C1140">
-        <v>73</v>
-      </c>
-      <c r="D1140" s="2" t="s">
-        <v>2333</v>
-      </c>
-      <c r="F1140" s="2"/>
-      <c r="H1140" s="26" t="s">
-        <v>2500</v>
-      </c>
-      <c r="I1140" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1141" t="s">
-        <v>2454</v>
-      </c>
-      <c r="B1141" s="2" t="s">
-        <v>2334</v>
-      </c>
-      <c r="C1141">
-        <v>74</v>
-      </c>
-      <c r="D1141" s="2" t="s">
-        <v>2334</v>
-      </c>
-      <c r="F1141" s="2"/>
-      <c r="H1141" s="26" t="s">
-        <v>2577</v>
-      </c>
-      <c r="I1141" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1142" s="40" t="s">
-        <v>2455</v>
-      </c>
-      <c r="B1142" s="2" t="s">
-        <v>2335</v>
-      </c>
-      <c r="C1142">
-        <v>75</v>
-      </c>
-      <c r="D1142" s="2" t="s">
-        <v>2335</v>
-      </c>
-      <c r="F1142" s="2"/>
-      <c r="H1142" s="26" t="s">
-        <v>2492</v>
-      </c>
-      <c r="I1142" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1143" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B1143" s="2" t="s">
-        <v>2336</v>
-      </c>
-      <c r="C1143">
-        <v>76</v>
-      </c>
-      <c r="D1143" s="2" t="s">
-        <v>2336</v>
-      </c>
-      <c r="F1143" s="2"/>
-      <c r="H1143" s="26" t="s">
-        <v>2581</v>
-      </c>
-      <c r="I1143" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1144" t="s">
-        <v>2457</v>
-      </c>
-      <c r="B1144" s="2" t="s">
-        <v>2337</v>
-      </c>
-      <c r="C1144">
-        <v>77</v>
-      </c>
-      <c r="D1144" s="2" t="s">
-        <v>2337</v>
-      </c>
-      <c r="F1144" s="2"/>
-      <c r="H1144" s="26" t="s">
-        <v>2520</v>
-      </c>
-      <c r="I1144" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1145" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B1145" s="2" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C1145">
-        <v>78</v>
-      </c>
-      <c r="D1145" s="2" t="s">
-        <v>2338</v>
-      </c>
-      <c r="F1145" s="2"/>
-      <c r="H1145" s="26" t="s">
-        <v>2617</v>
-      </c>
-      <c r="I1145" t="s">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1146" t="s">
-        <v>2459</v>
-      </c>
-      <c r="B1146" s="2" t="s">
-        <v>2339</v>
-      </c>
-      <c r="C1146">
-        <v>79</v>
-      </c>
-      <c r="D1146" s="2" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F1146" s="2"/>
-      <c r="H1146" s="27" t="s">
-        <v>2605</v>
-      </c>
-      <c r="I1146" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1147" s="39" t="s">
-        <v>2460</v>
-      </c>
-      <c r="B1147" s="2" t="s">
-        <v>2340</v>
-      </c>
-      <c r="C1147">
-        <v>80</v>
-      </c>
-      <c r="D1147" s="2" t="s">
-        <v>2340</v>
-      </c>
-      <c r="F1147" s="2"/>
-      <c r="H1147" s="26" t="s">
-        <v>2512</v>
-      </c>
-      <c r="I1147" t="s">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1148" s="39" t="s">
-        <v>2461</v>
-      </c>
-      <c r="B1148" s="2" t="s">
-        <v>2341</v>
-      </c>
-      <c r="C1148">
-        <v>81</v>
-      </c>
-      <c r="D1148" s="2" t="s">
-        <v>2341</v>
-      </c>
-      <c r="F1148" s="2"/>
-      <c r="H1148" s="26" t="s">
-        <v>2573</v>
-      </c>
-      <c r="I1148" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1149" s="2" t="s">
-        <v>2342</v>
-      </c>
-      <c r="C1149">
-        <v>82</v>
-      </c>
-      <c r="D1149" s="2" t="s">
-        <v>2342</v>
-      </c>
-      <c r="F1149" s="2"/>
-      <c r="H1149" s="26" t="s">
-        <v>2614</v>
-      </c>
-      <c r="I1149" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1150" s="2" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C1150">
-        <v>83</v>
-      </c>
-      <c r="D1150" s="2" t="s">
-        <v>2343</v>
-      </c>
-      <c r="F1150" s="2"/>
-      <c r="H1150" s="26" t="s">
-        <v>2594</v>
-      </c>
-      <c r="I1150" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1151" s="2" t="s">
-        <v>2344</v>
-      </c>
-      <c r="C1151">
-        <v>84</v>
-      </c>
-      <c r="D1151" s="2" t="s">
-        <v>2465</v>
-      </c>
-      <c r="F1151" s="2"/>
-      <c r="H1151" s="26" t="s">
-        <v>2554</v>
-      </c>
-      <c r="I1151" t="s">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1152" s="2" t="s">
-        <v>2344</v>
-      </c>
-      <c r="C1152">
+      <c r="H1242" s="26" t="s">
+        <v>2525</v>
+      </c>
+      <c r="I1242" t="str">
+        <f>_xlfn.CONCAT($H$1,H1242,$I$1,H1242,$J$1)</f>
+        <v>var crdae_travelcurrent = $("#crdae_travelcurrent").val();</v>
+      </c>
+      <c r="J1242" t="str">
+        <f>_xlfn.CONCAT($L$1,H1242,$K$1,H1242,"),")</f>
+        <v>"crdae_travelcurrent": Number(crdae_travelcurrent),</v>
+      </c>
+      <c r="L1242" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_travelcurrent"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_travelcurrent}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1243" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C1243">
+        <v>166</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F1243" s="2"/>
+      <c r="G1243">
+        <v>117</v>
+      </c>
+      <c r="H1243" s="26" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I1243" t="str">
+        <f>_xlfn.CONCAT($H$1,H1243,$I$1,H1243,$J$1)</f>
+        <v>var crdae_travelfurther = $("#crdae_travelfurther").val();</v>
+      </c>
+      <c r="J1243" t="str">
+        <f>_xlfn.CONCAT($L$1,H1243,$K$1,H1243,"),")</f>
+        <v>"crdae_travelfurther": Number(crdae_travelfurther),</v>
+      </c>
+      <c r="L1243" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_travelfurther"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_travelfurther}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1244" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1244">
+        <v>134</v>
+      </c>
+      <c r="D1244" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F1244" s="2"/>
+      <c r="G1244">
         <v>85</v>
       </c>
-      <c r="D1152" s="2" t="s">
-        <v>2466</v>
-      </c>
-      <c r="F1152" s="2"/>
-      <c r="H1152" s="26" t="s">
-        <v>2558</v>
-      </c>
-      <c r="I1152" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="1153" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1153" s="2" t="s">
-        <v>2345</v>
-      </c>
-      <c r="C1153">
-        <v>86</v>
-      </c>
-      <c r="D1153" s="2" t="s">
-        <v>2345</v>
-      </c>
-      <c r="F1153" s="2"/>
-      <c r="H1153" s="26" t="s">
-        <v>2487</v>
-      </c>
-      <c r="I1153" t="s">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="1154" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1154" s="2" t="s">
-        <v>2346</v>
-      </c>
-      <c r="C1154">
-        <v>87</v>
-      </c>
-      <c r="D1154" s="2" t="s">
-        <v>2346</v>
-      </c>
-      <c r="F1154" s="2"/>
-      <c r="H1154" s="26" t="s">
-        <v>2590</v>
-      </c>
-      <c r="I1154" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="1155" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1155" s="2" t="s">
-        <v>2344</v>
-      </c>
-      <c r="C1155">
-        <v>88</v>
-      </c>
-      <c r="D1155" s="2" t="s">
-        <v>2467</v>
-      </c>
-      <c r="F1155" s="2"/>
-      <c r="H1155" s="26" t="s">
-        <v>2562</v>
-      </c>
-      <c r="I1155" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="1156" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1156" s="2" t="s">
-        <v>2347</v>
-      </c>
-      <c r="C1156">
-        <v>89</v>
-      </c>
-      <c r="D1156" s="2" t="s">
-        <v>2347</v>
-      </c>
-      <c r="F1156" s="2"/>
-      <c r="H1156" s="26" t="s">
-        <v>2509</v>
-      </c>
-      <c r="I1156" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="1157" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1157" s="2" t="s">
-        <v>2348</v>
-      </c>
-      <c r="C1157">
-        <v>90</v>
-      </c>
-      <c r="D1157" s="2" t="s">
-        <v>2348</v>
-      </c>
-      <c r="F1157" s="2"/>
-      <c r="H1157" s="26" t="s">
-        <v>2566</v>
-      </c>
-      <c r="I1157" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="1158" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1158" s="2" t="s">
-        <v>2349</v>
-      </c>
-      <c r="C1158">
-        <v>91</v>
-      </c>
-      <c r="D1158" s="2" t="s">
-        <v>2349</v>
-      </c>
-      <c r="F1158" s="2"/>
-      <c r="H1158" s="26" t="s">
-        <v>2505</v>
-      </c>
-      <c r="I1158" t="s">
+      <c r="H1244" s="26" t="s">
         <v>2527</v>
       </c>
-    </row>
-    <row r="1159" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1159" s="2" t="s">
-        <v>2350</v>
-      </c>
-      <c r="C1159">
-        <v>92</v>
-      </c>
-      <c r="D1159" s="2" t="s">
-        <v>2350</v>
-      </c>
-      <c r="F1159" s="2"/>
-      <c r="H1159" s="26" t="s">
-        <v>2570</v>
-      </c>
-      <c r="I1159" s="26"/>
-    </row>
-    <row r="1160" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1160" s="2" t="s">
-        <v>2351</v>
-      </c>
-      <c r="C1160">
-        <v>93</v>
-      </c>
-      <c r="D1160" s="2" t="s">
-        <v>2351</v>
-      </c>
-      <c r="F1160" s="2"/>
-      <c r="H1160" s="26" t="s">
-        <v>2538</v>
-      </c>
-      <c r="I1160" s="26"/>
-    </row>
-    <row r="1161" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1161" s="2" t="s">
-        <v>2352</v>
-      </c>
-      <c r="C1161">
-        <v>94</v>
-      </c>
-      <c r="D1161" s="2" t="s">
-        <v>2474</v>
-      </c>
-      <c r="F1161" s="2"/>
-      <c r="H1161" s="26" t="s">
-        <v>2598</v>
-      </c>
-      <c r="I1161" s="26"/>
-    </row>
-    <row r="1162" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1162" s="2" t="s">
-        <v>2353</v>
-      </c>
-      <c r="C1162">
-        <v>95</v>
-      </c>
-      <c r="D1162" s="2" t="s">
-        <v>2353</v>
-      </c>
-      <c r="F1162" s="2"/>
-      <c r="H1162" s="26" t="s">
-        <v>2550</v>
-      </c>
-      <c r="I1162" s="26"/>
-    </row>
-    <row r="1163" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1163" s="2" t="s">
-        <v>2354</v>
-      </c>
-      <c r="C1163">
-        <v>96</v>
-      </c>
-      <c r="D1163" s="2" t="s">
-        <v>2475</v>
-      </c>
-      <c r="F1163" s="2"/>
-      <c r="H1163" s="26" t="s">
-        <v>2546</v>
-      </c>
-      <c r="I1163" s="26"/>
-    </row>
-    <row r="1164" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1164" s="2" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C1164">
-        <v>97</v>
-      </c>
-      <c r="D1164" s="2" t="s">
-        <v>2355</v>
-      </c>
-      <c r="F1164" s="2"/>
-      <c r="H1164" s="26" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I1164" s="26"/>
-    </row>
-    <row r="1165" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1165" s="2" t="s">
-        <v>2356</v>
-      </c>
-      <c r="C1165">
-        <v>98</v>
-      </c>
-      <c r="D1165" s="2" t="s">
-        <v>2356</v>
-      </c>
-      <c r="F1165" s="2"/>
-      <c r="H1165" s="26" t="s">
-        <v>2610</v>
-      </c>
-      <c r="I1165" s="26"/>
-    </row>
-    <row r="1166" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B1166" s="2" t="s">
-        <v>2357</v>
-      </c>
-      <c r="C1166">
-        <v>99</v>
-      </c>
-      <c r="D1166" s="2" t="s">
-        <v>2476</v>
-      </c>
-      <c r="F1166" s="2"/>
-      <c r="H1166" s="26" t="s">
-        <v>2602</v>
-      </c>
-      <c r="I1166" s="26"/>
-    </row>
-    <row r="1167" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1167" s="2" t="s">
-        <v>2358</v>
-      </c>
-      <c r="C1167">
-        <v>100</v>
-      </c>
-      <c r="D1167" s="2" t="s">
-        <v>2358</v>
-      </c>
-      <c r="F1167" s="2"/>
-      <c r="H1167" s="26" t="s">
-        <v>2517</v>
-      </c>
-      <c r="I1167" s="26"/>
-    </row>
-    <row r="1168" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1168" s="2" t="s">
-        <v>2359</v>
-      </c>
-      <c r="C1168">
-        <v>101</v>
-      </c>
-      <c r="D1168" s="2" t="s">
-        <v>2359</v>
-      </c>
-      <c r="F1168" s="2"/>
-      <c r="H1168" s="26" t="s">
-        <v>2542</v>
-      </c>
-      <c r="I1168" s="26"/>
-    </row>
-    <row r="1169" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1169" s="2" t="s">
-        <v>2360</v>
-      </c>
-      <c r="C1169">
-        <v>102</v>
-      </c>
-      <c r="D1169" s="2" t="s">
-        <v>2360</v>
-      </c>
-      <c r="F1169" s="2"/>
-      <c r="H1169" s="26" t="s">
-        <v>2525</v>
-      </c>
-      <c r="I1169" s="26"/>
-    </row>
-    <row r="1170" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1170" s="2" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C1170">
-        <v>103</v>
-      </c>
-      <c r="D1170" s="2" t="s">
-        <v>2361</v>
-      </c>
-      <c r="F1170" s="2"/>
-      <c r="H1170" s="26" t="s">
-        <v>2534</v>
-      </c>
-      <c r="I1170" s="26"/>
-    </row>
-    <row r="1171" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1171" s="2" t="s">
-        <v>2362</v>
-      </c>
-      <c r="C1171">
-        <v>104</v>
-      </c>
-      <c r="D1171" s="2" t="s">
-        <v>2362</v>
-      </c>
-      <c r="F1171" s="2"/>
-      <c r="H1171" s="26" t="s">
-        <v>2497</v>
-      </c>
-      <c r="I1171" s="26"/>
-    </row>
-    <row r="1172" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1172" s="2" t="s">
-        <v>2363</v>
-      </c>
-      <c r="C1172">
-        <v>105</v>
-      </c>
-      <c r="D1172" s="2" t="s">
-        <v>2363</v>
-      </c>
-      <c r="F1172" s="2"/>
-      <c r="H1172" s="26" t="s">
-        <v>2501</v>
-      </c>
-      <c r="I1172" s="26"/>
-    </row>
-    <row r="1173" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1173" s="2" t="s">
-        <v>2364</v>
-      </c>
-      <c r="C1173">
-        <v>106</v>
-      </c>
-      <c r="D1173" s="2" t="s">
-        <v>2364</v>
-      </c>
-      <c r="F1173" s="2"/>
-      <c r="H1173" s="26" t="s">
-        <v>2578</v>
-      </c>
-      <c r="I1173" s="26"/>
-    </row>
-    <row r="1174" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1174" s="2" t="s">
-        <v>2365</v>
-      </c>
-      <c r="C1174">
-        <v>107</v>
-      </c>
-      <c r="D1174" s="2" t="s">
-        <v>2365</v>
-      </c>
-      <c r="F1174" s="2"/>
-      <c r="H1174" s="26" t="s">
-        <v>2493</v>
-      </c>
-      <c r="I1174" s="26"/>
-    </row>
-    <row r="1175" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1175" s="2" t="s">
-        <v>2366</v>
-      </c>
-      <c r="C1175">
-        <v>108</v>
-      </c>
-      <c r="D1175" s="2" t="s">
-        <v>2366</v>
-      </c>
-      <c r="F1175" s="2"/>
-      <c r="H1175" s="26" t="s">
-        <v>2582</v>
-      </c>
-      <c r="I1175" s="26"/>
-    </row>
-    <row r="1176" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1176" s="2" t="s">
-        <v>2367</v>
-      </c>
-      <c r="C1176">
-        <v>109</v>
-      </c>
-      <c r="D1176" s="2" t="s">
-        <v>2367</v>
-      </c>
-      <c r="F1176" s="2"/>
-      <c r="H1176" s="26" t="s">
-        <v>2521</v>
-      </c>
-      <c r="I1176" s="26"/>
-    </row>
-    <row r="1177" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1177" s="2" t="s">
-        <v>2368</v>
-      </c>
-      <c r="C1177">
-        <v>110</v>
-      </c>
-      <c r="D1177" s="2" t="s">
-        <v>2368</v>
-      </c>
-      <c r="F1177" s="2"/>
-      <c r="H1177" s="26" t="s">
-        <v>2618</v>
-      </c>
-      <c r="I1177" s="26"/>
-    </row>
-    <row r="1178" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B1178" s="2" t="s">
-        <v>2369</v>
-      </c>
-      <c r="C1178">
-        <v>111</v>
-      </c>
-      <c r="D1178" s="2" t="s">
-        <v>2477</v>
-      </c>
-      <c r="F1178" s="2"/>
-      <c r="H1178" s="26" t="s">
-        <v>2606</v>
-      </c>
-      <c r="I1178" s="26"/>
-    </row>
-    <row r="1179" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1179" s="2" t="s">
-        <v>2370</v>
-      </c>
-      <c r="C1179">
-        <v>112</v>
-      </c>
-      <c r="D1179" s="2" t="s">
-        <v>2370</v>
-      </c>
-      <c r="F1179" s="2"/>
-      <c r="H1179" s="26" t="s">
-        <v>2513</v>
-      </c>
-      <c r="I1179" s="26"/>
-    </row>
-    <row r="1180" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1180" s="2" t="s">
-        <v>2371</v>
-      </c>
-      <c r="C1180">
-        <v>113</v>
-      </c>
-      <c r="D1180" s="2" t="s">
-        <v>2371</v>
-      </c>
-      <c r="F1180" s="2"/>
-      <c r="H1180" s="26" t="s">
-        <v>2574</v>
-      </c>
-      <c r="I1180" s="26"/>
-    </row>
-    <row r="1181" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1181" s="2" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C1181">
-        <v>114</v>
-      </c>
-      <c r="D1181" s="2" t="s">
-        <v>2372</v>
-      </c>
-      <c r="F1181" s="2"/>
-      <c r="H1181" s="26" t="s">
-        <v>2616</v>
-      </c>
-      <c r="I1181" s="26"/>
-    </row>
-    <row r="1182" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1182" s="2" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C1182">
-        <v>115</v>
-      </c>
-      <c r="D1182" s="2" t="s">
-        <v>2373</v>
-      </c>
-      <c r="F1182" s="2"/>
-      <c r="H1182" s="26" t="s">
-        <v>2596</v>
-      </c>
-      <c r="I1182" s="26"/>
-    </row>
-    <row r="1183" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1183" s="2" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C1183">
-        <v>116</v>
-      </c>
-      <c r="D1183" s="2" t="s">
-        <v>2468</v>
-      </c>
-      <c r="F1183" s="2"/>
-      <c r="H1183" s="26" t="s">
-        <v>2556</v>
-      </c>
-      <c r="I1183" s="26"/>
-    </row>
-    <row r="1184" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1184" s="2" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C1184">
-        <v>117</v>
-      </c>
-      <c r="D1184" s="2" t="s">
-        <v>2469</v>
-      </c>
-      <c r="F1184" s="2"/>
-      <c r="H1184" s="26" t="s">
-        <v>2560</v>
-      </c>
-      <c r="I1184" s="26"/>
-    </row>
-    <row r="1185" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1185" s="2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="C1185">
-        <v>118</v>
-      </c>
-      <c r="D1185" s="2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="F1185" s="2"/>
-      <c r="H1185" s="26" t="s">
-        <v>2489</v>
-      </c>
-      <c r="I1185" s="26"/>
-    </row>
-    <row r="1186" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1186" s="2" t="s">
-        <v>2376</v>
-      </c>
-      <c r="C1186">
-        <v>119</v>
-      </c>
-      <c r="D1186" s="2" t="s">
-        <v>2376</v>
-      </c>
-      <c r="F1186" s="2"/>
-      <c r="H1186" s="26" t="s">
-        <v>2592</v>
-      </c>
-      <c r="I1186" s="26"/>
-    </row>
-    <row r="1187" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1187" s="2" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C1187">
-        <v>120</v>
-      </c>
-      <c r="D1187" s="2" t="s">
-        <v>2470</v>
-      </c>
-      <c r="F1187" s="2"/>
-      <c r="H1187" s="26" t="s">
-        <v>2564</v>
-      </c>
-      <c r="I1187" s="26"/>
-    </row>
-    <row r="1188" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1188" s="2" t="s">
-        <v>2377</v>
-      </c>
-      <c r="C1188">
-        <v>121</v>
-      </c>
-      <c r="D1188" s="2" t="s">
-        <v>2377</v>
-      </c>
-      <c r="F1188" s="2"/>
-      <c r="H1188" s="26" t="s">
-        <v>2511</v>
-      </c>
-      <c r="I1188" s="26"/>
-    </row>
-    <row r="1189" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1189" s="2" t="s">
-        <v>2378</v>
-      </c>
-      <c r="C1189">
-        <v>122</v>
-      </c>
-      <c r="D1189" s="2" t="s">
-        <v>2378</v>
-      </c>
-      <c r="F1189" s="2"/>
-      <c r="H1189" s="26" t="s">
-        <v>2568</v>
-      </c>
-      <c r="I1189" s="26"/>
-    </row>
-    <row r="1190" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1190" s="2" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C1190">
-        <v>123</v>
-      </c>
-      <c r="D1190" s="2" t="s">
-        <v>2379</v>
-      </c>
-      <c r="F1190" s="2"/>
-      <c r="H1190" s="26" t="s">
-        <v>2507</v>
-      </c>
-      <c r="I1190" s="26"/>
-    </row>
-    <row r="1191" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1191" s="2" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1191">
-        <v>124</v>
-      </c>
-      <c r="D1191" s="2" t="s">
-        <v>2380</v>
-      </c>
-      <c r="F1191" s="2"/>
-      <c r="H1191" s="26" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="1192" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1192" s="2" t="s">
-        <v>2381</v>
-      </c>
-      <c r="C1192">
-        <v>125</v>
-      </c>
-      <c r="D1192" s="2" t="s">
-        <v>2381</v>
-      </c>
-      <c r="F1192" s="2"/>
-      <c r="H1192" s="26" t="s">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="1193" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1193" s="2" t="s">
-        <v>2382</v>
-      </c>
-      <c r="C1193">
-        <v>126</v>
-      </c>
-      <c r="D1193" s="2" t="s">
-        <v>2478</v>
-      </c>
-      <c r="F1193" s="2"/>
-      <c r="H1193" s="26" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="1194" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1194" s="2" t="s">
-        <v>2383</v>
-      </c>
-      <c r="C1194">
-        <v>127</v>
-      </c>
-      <c r="D1194" s="2" t="s">
-        <v>2383</v>
-      </c>
-      <c r="F1194" s="2"/>
-      <c r="H1194" s="26" t="s">
-        <v>2552</v>
-      </c>
-    </row>
-    <row r="1195" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1195" s="2" t="s">
-        <v>2384</v>
-      </c>
-      <c r="C1195">
-        <v>128</v>
-      </c>
-      <c r="D1195" s="2" t="s">
-        <v>2479</v>
-      </c>
-      <c r="F1195" s="2"/>
-      <c r="H1195" s="26" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="1196" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1196" s="2" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C1196">
-        <v>129</v>
-      </c>
-      <c r="D1196" s="2" t="s">
-        <v>2385</v>
-      </c>
-      <c r="F1196" s="2"/>
-      <c r="H1196" s="26" t="s">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="1197" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1197" s="2" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C1197">
-        <v>130</v>
-      </c>
-      <c r="D1197" s="2" t="s">
-        <v>2386</v>
-      </c>
-      <c r="F1197" s="2"/>
-      <c r="H1197" s="26" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="1198" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1198" s="2" t="s">
-        <v>2387</v>
-      </c>
-      <c r="C1198">
-        <v>131</v>
-      </c>
-      <c r="D1198" s="2" t="s">
-        <v>2480</v>
-      </c>
-      <c r="F1198" s="2"/>
-      <c r="H1198" s="26" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="1199" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1199" s="2" t="s">
-        <v>2388</v>
-      </c>
-      <c r="C1199">
-        <v>132</v>
-      </c>
-      <c r="D1199" s="2" t="s">
-        <v>2388</v>
-      </c>
-      <c r="F1199" s="2"/>
-      <c r="H1199" s="26" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="1200" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1200" s="2" t="s">
-        <v>2389</v>
-      </c>
-      <c r="C1200">
-        <v>133</v>
-      </c>
-      <c r="D1200" s="2" t="s">
-        <v>2389</v>
-      </c>
-      <c r="F1200" s="2"/>
-      <c r="H1200" s="26" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="1201" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1201" s="2" t="s">
-        <v>2390</v>
-      </c>
-      <c r="C1201">
-        <v>134</v>
-      </c>
-      <c r="D1201" s="2" t="s">
-        <v>2390</v>
-      </c>
-      <c r="F1201" s="2"/>
-      <c r="H1201" s="26" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="1202" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1202" s="2" t="s">
-        <v>2391</v>
-      </c>
-      <c r="C1202">
-        <v>135</v>
-      </c>
-      <c r="D1202" s="2" t="s">
-        <v>2391</v>
-      </c>
-      <c r="F1202" s="2"/>
-      <c r="H1202" s="26" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="1203" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1203" s="2" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C1203">
-        <v>136</v>
-      </c>
-      <c r="D1203" s="2" t="s">
-        <v>2392</v>
-      </c>
-      <c r="F1203" s="2"/>
-      <c r="H1203" s="26" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="1204" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1204" s="2" t="s">
-        <v>2393</v>
-      </c>
-      <c r="C1204">
-        <v>137</v>
-      </c>
-      <c r="D1204" s="2" t="s">
-        <v>2393</v>
-      </c>
-      <c r="F1204" s="2"/>
-      <c r="H1204" s="26" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="1205" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1205" s="2" t="s">
-        <v>2394</v>
-      </c>
-      <c r="C1205">
-        <v>138</v>
-      </c>
-      <c r="D1205" s="2" t="s">
-        <v>2394</v>
-      </c>
-      <c r="F1205" s="2"/>
-      <c r="H1205" s="26" t="s">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="1206" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1206" s="2" t="s">
-        <v>2395</v>
-      </c>
-      <c r="C1206">
-        <v>139</v>
-      </c>
-      <c r="D1206" s="2" t="s">
-        <v>2395</v>
-      </c>
-      <c r="F1206" s="2"/>
-      <c r="H1206" s="26" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="1207" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1207" s="2" t="s">
-        <v>2396</v>
-      </c>
-      <c r="C1207">
-        <v>140</v>
-      </c>
-      <c r="D1207" s="2" t="s">
-        <v>2396</v>
-      </c>
-      <c r="F1207" s="2"/>
-      <c r="H1207" s="26" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="1208" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1208" s="2" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1208">
-        <v>141</v>
-      </c>
-      <c r="D1208" s="2" t="s">
-        <v>2397</v>
-      </c>
-      <c r="F1208" s="2"/>
-      <c r="H1208" s="26" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="1209" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1209" s="2" t="s">
-        <v>2398</v>
-      </c>
-      <c r="C1209">
-        <v>142</v>
-      </c>
-      <c r="D1209" s="2" t="s">
-        <v>2398</v>
-      </c>
-      <c r="F1209" s="2"/>
-      <c r="H1209" s="26" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="1210" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B1210" s="2" t="s">
-        <v>2399</v>
-      </c>
-      <c r="C1210">
-        <v>143</v>
-      </c>
-      <c r="D1210" s="2" t="s">
-        <v>2481</v>
-      </c>
-      <c r="F1210" s="2"/>
-      <c r="H1210" s="26" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="1211" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1211" s="2" t="s">
-        <v>2400</v>
-      </c>
-      <c r="C1211">
-        <v>144</v>
-      </c>
-      <c r="D1211" s="2" t="s">
-        <v>2400</v>
-      </c>
-      <c r="F1211" s="2"/>
-      <c r="H1211" s="26" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="1212" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1212" s="2" t="s">
-        <v>2401</v>
-      </c>
-      <c r="C1212">
-        <v>145</v>
-      </c>
-      <c r="D1212" s="2" t="s">
-        <v>2401</v>
-      </c>
-      <c r="F1212" s="2"/>
-      <c r="H1212" s="26" t="s">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="1213" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1213" s="2" t="s">
-        <v>2402</v>
-      </c>
-      <c r="C1213">
-        <v>146</v>
-      </c>
-      <c r="D1213" s="2" t="s">
-        <v>2402</v>
-      </c>
-      <c r="F1213" s="2"/>
-      <c r="H1213" s="26" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="1214" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1214" s="2" t="s">
-        <v>2403</v>
-      </c>
-      <c r="C1214">
-        <v>147</v>
-      </c>
-      <c r="D1214" s="2" t="s">
-        <v>2403</v>
-      </c>
-      <c r="F1214" s="2"/>
-      <c r="H1214" s="26" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="1215" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1215" s="2" t="s">
-        <v>2404</v>
-      </c>
-      <c r="C1215">
-        <v>148</v>
-      </c>
-      <c r="D1215" s="2" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F1215" s="2"/>
-      <c r="H1215" s="26" t="s">
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="1216" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1216" s="2" t="s">
-        <v>2404</v>
-      </c>
-      <c r="C1216">
-        <v>149</v>
-      </c>
-      <c r="D1216" s="2" t="s">
-        <v>2472</v>
-      </c>
-      <c r="F1216" s="2"/>
-      <c r="H1216" s="26" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="1217" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1217" s="2" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C1217">
-        <v>150</v>
-      </c>
-      <c r="D1217" s="2" t="s">
-        <v>2405</v>
-      </c>
-      <c r="F1217" s="2"/>
-      <c r="H1217" s="26" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1218" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1218" s="2" t="s">
-        <v>2406</v>
-      </c>
-      <c r="C1218">
-        <v>151</v>
-      </c>
-      <c r="D1218" s="2" t="s">
-        <v>2406</v>
-      </c>
-      <c r="F1218" s="2"/>
-      <c r="H1218" s="26" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="1219" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1219" s="2" t="s">
-        <v>2404</v>
-      </c>
-      <c r="C1219">
-        <v>152</v>
-      </c>
-      <c r="D1219" s="2" t="s">
-        <v>2473</v>
-      </c>
-      <c r="F1219" s="2"/>
-      <c r="H1219" s="26" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="1220" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1220" s="2" t="s">
-        <v>2407</v>
-      </c>
-      <c r="C1220">
-        <v>153</v>
-      </c>
-      <c r="D1220" s="2" t="s">
-        <v>2407</v>
-      </c>
-      <c r="F1220" s="2"/>
-      <c r="H1220" s="26" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="1221" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1221" s="2" t="s">
-        <v>2408</v>
-      </c>
-      <c r="C1221">
-        <v>154</v>
-      </c>
-      <c r="D1221" s="2" t="s">
-        <v>2408</v>
-      </c>
-      <c r="F1221" s="2"/>
-      <c r="H1221" s="26" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="1222" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1222" s="2" t="s">
-        <v>2409</v>
-      </c>
-      <c r="C1222">
-        <v>155</v>
-      </c>
-      <c r="D1222" s="2" t="s">
-        <v>2409</v>
-      </c>
-      <c r="F1222" s="2"/>
-      <c r="H1222" s="26" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="1223" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1223" s="2" t="s">
-        <v>2410</v>
-      </c>
-      <c r="C1223">
-        <v>156</v>
-      </c>
-      <c r="D1223" s="2" t="s">
-        <v>2410</v>
-      </c>
-      <c r="F1223" s="2"/>
-      <c r="H1223" s="26" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="1224" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1224" s="2" t="s">
-        <v>2411</v>
-      </c>
-      <c r="C1224">
-        <v>157</v>
-      </c>
-      <c r="D1224" s="2" t="s">
-        <v>2411</v>
-      </c>
-      <c r="F1224" s="2"/>
-      <c r="H1224" s="26" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="1225" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1225" s="2" t="s">
-        <v>2412</v>
-      </c>
-      <c r="C1225">
-        <v>158</v>
-      </c>
-      <c r="D1225" s="2" t="s">
-        <v>2482</v>
-      </c>
-      <c r="F1225" s="2"/>
-      <c r="H1225" s="26" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="1226" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1226" s="2" t="s">
-        <v>2413</v>
-      </c>
-      <c r="C1226">
-        <v>159</v>
-      </c>
-      <c r="D1226" s="2" t="s">
-        <v>2413</v>
-      </c>
-      <c r="F1226" s="2"/>
-      <c r="H1226" s="26" t="s">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="1227" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1227" s="2" t="s">
-        <v>2414</v>
-      </c>
-      <c r="C1227">
-        <v>160</v>
-      </c>
-      <c r="D1227" s="2" t="s">
-        <v>2483</v>
-      </c>
-      <c r="F1227" s="2"/>
-      <c r="H1227" s="26" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="1228" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1228" s="2" t="s">
-        <v>2415</v>
-      </c>
-      <c r="C1228">
-        <v>161</v>
-      </c>
-      <c r="D1228" s="2" t="s">
-        <v>2415</v>
-      </c>
-      <c r="F1228" s="2"/>
-      <c r="H1228" s="26" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="1229" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1229" s="2" t="s">
-        <v>2416</v>
-      </c>
-      <c r="C1229">
-        <v>162</v>
-      </c>
-      <c r="D1229" s="2" t="s">
-        <v>2416</v>
-      </c>
-      <c r="F1229" s="2"/>
-      <c r="H1229" s="26" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="1230" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B1230" s="2" t="s">
-        <v>2417</v>
-      </c>
-      <c r="C1230">
-        <v>163</v>
-      </c>
-      <c r="D1230" s="2" t="s">
-        <v>2484</v>
-      </c>
-      <c r="F1230" s="2"/>
-      <c r="H1230" s="26" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="1231" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1231" s="2" t="s">
-        <v>2418</v>
-      </c>
-      <c r="C1231">
-        <v>164</v>
-      </c>
-      <c r="D1231" s="2" t="s">
-        <v>2418</v>
-      </c>
-      <c r="F1231" s="2"/>
-      <c r="H1231" s="26" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="1232" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1232" s="2" t="s">
-        <v>2419</v>
-      </c>
-      <c r="C1232">
-        <v>165</v>
-      </c>
-      <c r="D1232" s="2" t="s">
-        <v>2419</v>
-      </c>
-      <c r="F1232" s="2"/>
-      <c r="H1232" s="26" t="s">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1233" s="2" t="s">
-        <v>2420</v>
-      </c>
-      <c r="C1233">
-        <v>166</v>
-      </c>
-      <c r="D1233" s="2" t="s">
-        <v>2420</v>
-      </c>
-      <c r="F1233" s="2"/>
-      <c r="H1233" s="26" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1234" s="2" t="s">
-        <v>2421</v>
-      </c>
-      <c r="C1234">
-        <v>167</v>
-      </c>
-      <c r="D1234" s="2" t="s">
-        <v>2421</v>
-      </c>
-      <c r="F1234" s="2"/>
-      <c r="H1234" s="26" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1235" s="2" t="s">
-        <v>2422</v>
-      </c>
-      <c r="C1235">
-        <v>168</v>
-      </c>
-      <c r="D1235" s="2" t="s">
-        <v>2422</v>
-      </c>
-      <c r="F1235" s="2"/>
-      <c r="H1235" s="26" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1236" s="2" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C1236">
-        <v>169</v>
-      </c>
-      <c r="D1236" s="2" t="s">
-        <v>2423</v>
-      </c>
-      <c r="F1236" s="2"/>
-      <c r="H1236" s="26" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1237" s="2" t="s">
-        <v>2424</v>
-      </c>
-      <c r="C1237">
-        <v>170</v>
-      </c>
-      <c r="D1237" s="2" t="s">
-        <v>2424</v>
-      </c>
-      <c r="F1237" s="2"/>
-      <c r="H1237" s="26" t="s">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1238" s="2" t="s">
-        <v>2425</v>
-      </c>
-      <c r="C1238">
-        <v>171</v>
-      </c>
-      <c r="D1238" s="2" t="s">
-        <v>2425</v>
-      </c>
-      <c r="F1238" s="2"/>
-      <c r="H1238" s="26" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1239" s="2" t="s">
-        <v>2426</v>
-      </c>
-      <c r="C1239">
-        <v>172</v>
-      </c>
-      <c r="D1239" s="2" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1239" s="2"/>
-      <c r="H1239" s="26" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1240" s="2" t="s">
-        <v>2427</v>
-      </c>
-      <c r="C1240">
-        <v>173</v>
-      </c>
-      <c r="D1240" s="2" t="s">
-        <v>2427</v>
-      </c>
-      <c r="F1240" s="2"/>
-      <c r="H1240" s="26" t="s">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1241" s="2" t="s">
-        <v>2428</v>
-      </c>
-      <c r="C1241">
-        <v>174</v>
-      </c>
-      <c r="D1241" s="2" t="s">
-        <v>2428</v>
-      </c>
-      <c r="F1241" s="2"/>
-      <c r="H1241" s="26" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B1242" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C1242">
-        <v>175</v>
-      </c>
-      <c r="D1242" s="2" t="s">
-        <v>2485</v>
-      </c>
-      <c r="F1242" s="2"/>
-      <c r="H1242" s="26" t="s">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1243" s="2" t="s">
-        <v>2430</v>
-      </c>
-      <c r="C1243">
-        <v>176</v>
-      </c>
-      <c r="D1243" s="2" t="s">
-        <v>2430</v>
-      </c>
-      <c r="F1243" s="2"/>
-      <c r="H1243" s="26" t="s">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1244" s="2" t="s">
-        <v>2431</v>
-      </c>
-      <c r="C1244">
-        <v>177</v>
-      </c>
-      <c r="D1244" s="2" t="s">
-        <v>2431</v>
-      </c>
-      <c r="F1244" s="2"/>
-      <c r="H1244" s="26" t="s">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I1244" t="str">
+        <f>_xlfn.CONCAT($H$1,H1244,$I$1,H1244,$J$1)</f>
+        <v>var crdae_traveltotal = $("#crdae_traveltotal").val();</v>
+      </c>
+      <c r="J1244" t="str">
+        <f>_xlfn.CONCAT($L$1,H1244,$K$1,H1244,"),")</f>
+        <v>"crdae_traveltotal": Number(crdae_traveltotal),</v>
+      </c>
+      <c r="L1244" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt; &lt;input class="form-control" id="crdae_traveltotal"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].crdae_traveltotal}} {% endif %}"&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="D1245" s="2"/>
       <c r="H1245" s="26"/>
     </row>
-    <row r="1246" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
         <v>51</v>
       </c>
@@ -28754,11 +30517,11 @@
         <v>534</v>
       </c>
       <c r="I1246" t="str">
-        <f t="shared" ref="I1246:I1277" si="19">_xlfn.CONCAT($A$1,H1246,$C$1,H1246,$D$1)</f>
+        <f t="shared" ref="I1246:I1277" si="21">_xlfn.CONCAT($A$1,H1246,$C$1,H1246,$D$1)</f>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numparticpantsreferred"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numparticpantsreferred}} {% endif %}"&gt;</v>
       </c>
     </row>
-    <row r="1247" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1247">
         <v>2</v>
       </c>
@@ -28769,11 +30532,11 @@
         <v>535</v>
       </c>
       <c r="I1247" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numprereleasereferralssubsetparticipantsf"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numprereleasereferralssubsetparticipantsf}} {% endif %}"&gt;</v>
       </c>
     </row>
-    <row r="1248" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="C1248">
         <v>3</v>
       </c>
@@ -28784,7 +30547,7 @@
         <v>536</v>
       </c>
       <c r="I1248" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numreferralsenrolled"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numreferralsenrolled}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28801,7 +30564,7 @@
         <v>533</v>
       </c>
       <c r="I1249" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numongoingactiveparticipantsexcludingnewr"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numongoingactiveparticipantsexcludingnewr}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28818,7 +30581,7 @@
         <v>553</v>
       </c>
       <c r="I1250" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsnumagedgt25"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsnumagedgt25}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28835,7 +30598,7 @@
         <v>549</v>
       </c>
       <c r="I1251" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsnumaged2635"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsnumaged2635}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28852,7 +30615,7 @@
         <v>550</v>
       </c>
       <c r="I1252" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsnumaged3645"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsnumaged3645}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28869,7 +30632,7 @@
         <v>551</v>
       </c>
       <c r="I1253" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsnumaged4655"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsnumaged4655}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28886,7 +30649,7 @@
         <v>552</v>
       </c>
       <c r="I1254" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsnumaged55"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsnumaged55}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28903,7 +30666,7 @@
         <v>543</v>
       </c>
       <c r="I1255" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsageunknown"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsageunknown}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28920,7 +30683,7 @@
         <v>544</v>
       </c>
       <c r="I1256" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsasian"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsasian}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28937,7 +30700,7 @@
         <v>545</v>
       </c>
       <c r="I1257" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsblack"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsblack}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28954,7 +30717,7 @@
         <v>547</v>
       </c>
       <c r="I1258" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralslatinoa"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralslatinoa}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28971,7 +30734,7 @@
         <v>548</v>
       </c>
       <c r="I1259" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsnativeamerican"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsnativeamerican}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -28988,7 +30751,7 @@
         <v>556</v>
       </c>
       <c r="I1260" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralswhite"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralswhite}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29005,7 +30768,7 @@
         <v>546</v>
       </c>
       <c r="I1261" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsethnicityother"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsethnicityother}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29020,7 +30783,7 @@
         <v>554</v>
       </c>
       <c r="I1262" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsregioncentral"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsregioncentral}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29037,7 +30800,7 @@
         <v>555</v>
       </c>
       <c r="I1263" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsregioneast"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsregioneast}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29054,7 +30817,7 @@
         <v>471</v>
       </c>
       <c r="I1264" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsfemale"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsfemale}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29071,7 +30834,7 @@
         <v>470</v>
       </c>
       <c r="I1265" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralsmale"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralsmale}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29088,7 +30851,7 @@
         <v>469</v>
       </c>
       <c r="I1266" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstierab109prob"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstierab109prob}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29105,7 +30868,7 @@
         <v>464</v>
       </c>
       <c r="I1267" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstierfelonyprob"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstierfelonyprob}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29122,7 +30885,7 @@
         <v>463</v>
       </c>
       <c r="I1268" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstierlt30daysincustreleasedwinl"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstierlt30daysincustreleasedwinl}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29139,7 +30902,7 @@
         <v>468</v>
       </c>
       <c r="I1269" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstiercurrawaitingtrial"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstiercurrawaitingtrial}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29156,7 +30919,7 @@
         <v>466</v>
       </c>
       <c r="I1270" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstiercurronctprob"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstiercurronctprob}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29173,7 +30936,7 @@
         <v>460</v>
       </c>
       <c r="I1271" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstierspecctprobbehavioraldvdrug"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstierspecctprobbehavioraldvdrug}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29190,7 +30953,7 @@
         <v>465</v>
       </c>
       <c r="I1272" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstiercurronparole"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstiercurronparole}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29207,7 +30970,7 @@
         <v>467</v>
       </c>
       <c r="I1273" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstiercurrincust"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstiercurrincust}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29224,7 +30987,7 @@
         <v>461</v>
       </c>
       <c r="I1274" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstieroutjurisdiction"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstieroutjurisdiction}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29241,7 +31004,7 @@
         <v>462</v>
       </c>
       <c r="I1275" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_referralstiernonetheabove"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_referralstiernonetheabove}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29256,7 +31019,7 @@
         <v>523</v>
       </c>
       <c r="I1276" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted1training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted1training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29271,7 +31034,7 @@
         <v>524</v>
       </c>
       <c r="I1277" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted2training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted2training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29286,7 +31049,7 @@
         <v>525</v>
       </c>
       <c r="I1278" t="str">
-        <f t="shared" ref="I1278:I1294" si="20">_xlfn.CONCAT($A$1,H1278,$C$1,H1278,$D$1)</f>
+        <f t="shared" ref="I1278:I1294" si="22">_xlfn.CONCAT($A$1,H1278,$C$1,H1278,$D$1)</f>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted3training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted3training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29301,7 +31064,7 @@
         <v>526</v>
       </c>
       <c r="I1279" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted4training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted4training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29316,7 +31079,7 @@
         <v>527</v>
       </c>
       <c r="I1280" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted5training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted5training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29331,7 +31094,7 @@
         <v>528</v>
       </c>
       <c r="I1281" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted6training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted6training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29346,7 +31109,7 @@
         <v>529</v>
       </c>
       <c r="I1282" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted7training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted7training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29361,7 +31124,7 @@
         <v>530</v>
       </c>
       <c r="I1283" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted8training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted8training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29376,7 +31139,7 @@
         <v>531</v>
       </c>
       <c r="I1284" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted9training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted9training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29391,7 +31154,7 @@
         <v>520</v>
       </c>
       <c r="I1285" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted10training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted10training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29406,7 +31169,7 @@
         <v>521</v>
       </c>
       <c r="I1286" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted11training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted11training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29421,7 +31184,7 @@
         <v>522</v>
       </c>
       <c r="I1287" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numcompleted12training"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numcompleted12training}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29436,7 +31199,7 @@
         <v>532</v>
       </c>
       <c r="I1288" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_numdidnotcompleteprog"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_numdidnotcompleteprog}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29451,7 +31214,7 @@
         <v>541</v>
       </c>
       <c r="I1289" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_reasonforincompleteprognumdidnotcompletep"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_reasonforincompleteprognumdidnotcompletep}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29466,7 +31229,7 @@
         <v>539</v>
       </c>
       <c r="I1290" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_reasonforincompleteprogfailmeetprogreqs"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_reasonforincompleteprogfailmeetprogreqs}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29481,7 +31244,7 @@
         <v>538</v>
       </c>
       <c r="I1291" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_reasonforincompleteprogduectcriminalinvol"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_reasonforincompleteprogduectcriminalinvol}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29496,7 +31259,7 @@
         <v>540</v>
       </c>
       <c r="I1292" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_reasonforincompleteproglackengage"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_reasonforincompleteproglackengage}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29511,7 +31274,7 @@
         <v>537</v>
       </c>
       <c r="I1293" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_reasonforincompleteprogabsconding"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_reasonforincompleteprogabsconding}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -29526,7 +31289,7 @@
         <v>542</v>
       </c>
       <c r="I1294" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> &lt;input class="form-control" id="cr9aa_reasonforincompleteprogrelocationcasetran"  type="number" value="{% if recordCount &gt; 0 %}{{myquery.results.entities[0].cr9aa_reasonforincompleteprogrelocationcasetran}} {% endif %}"&gt;</v>
       </c>
     </row>
@@ -30458,2233 +32221,2233 @@
     </row>
     <row r="1366" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1366" t="str">
-        <f t="shared" ref="J1366:J1429" si="21">_xlfn.CONCAT(G1366,D1366)</f>
+        <f t="shared" ref="J1366:J1429" si="23">_xlfn.CONCAT(G1366,D1366)</f>
         <v/>
       </c>
     </row>
     <row r="1367" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1367" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1368" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1368" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1369" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1369" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1370" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1370" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1371" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1371" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1372" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1372" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1373" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1373" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1374" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1374" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1375" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1375" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1376" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J1376" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1377" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1377" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1378" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1378" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1379" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1379" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1380" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1380" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1381" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1381" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1382" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1382" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1383" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1383" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1384" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1384" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1385" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1385" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1386" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1386" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1387" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1387" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1388" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1388" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1389" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1389" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1390" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1390" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1391" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1391" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1392" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1392" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1393" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1393" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1394" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1394" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1395" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1395" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1396" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1396" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1397" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1397" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1398" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1398" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1399" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1399" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1400" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1400" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1401" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1401" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1402" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1402" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1403" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1403" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1404" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1404" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1405" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1405" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1406" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1406" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1407" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1407" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1408" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1408" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1409" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1409" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1410" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1410" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1411" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1411" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1412" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1412" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1413" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1413" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1414" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1414" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1415" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1415" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1416" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1416" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1417" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1417" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1418" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1418" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1419" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1419" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1420" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1420" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1421" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1421" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1422" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1422" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1423" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1423" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1424" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1424" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1425" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1425" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1426" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1426" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1427" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1427" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1428" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1428" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1429" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1429" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="1430" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1430" t="str">
-        <f t="shared" ref="J1430:J1493" si="22">_xlfn.CONCAT(G1430,D1430)</f>
+        <f t="shared" ref="J1430:J1493" si="24">_xlfn.CONCAT(G1430,D1430)</f>
         <v/>
       </c>
     </row>
     <row r="1431" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1431" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1432" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1432" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1433" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1433" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1434" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1434" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1435" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1435" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1436" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1436" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1437" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1437" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1438" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1438" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1439" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1439" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1440" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1440" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1441" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1441" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1442" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1442" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1443" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1443" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1444" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1444" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1445" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1445" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1446" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1446" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1447" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1447" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1448" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1448" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1449" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1449" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1450" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1450" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1451" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1451" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1452" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1452" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1453" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1453" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1454" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1454" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1455" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1455" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1456" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1456" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1457" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1457" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1458" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1458" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1459" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1459" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1460" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1460" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1461" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1461" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1462" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1462" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1463" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1463" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1464" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1464" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1465" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1465" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1466" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1466" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1467" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1467" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1468" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1468" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1469" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1469" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1470" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1470" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1471" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1471" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1472" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1472" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1473" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1473" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1474" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1474" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1475" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1475" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1476" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1476" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1477" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1477" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1478" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1478" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1479" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1479" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1480" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1480" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1481" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1481" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1482" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1482" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1483" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1483" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1484" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1484" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1485" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1485" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1486" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1486" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1487" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1487" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1488" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1488" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1489" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1489" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1490" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1490" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1491" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1491" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1492" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1492" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1493" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1493" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="1494" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1494" t="str">
-        <f t="shared" ref="J1494:J1557" si="23">_xlfn.CONCAT(G1494,D1494)</f>
+        <f t="shared" ref="J1494:J1557" si="25">_xlfn.CONCAT(G1494,D1494)</f>
         <v/>
       </c>
     </row>
     <row r="1495" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1495" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1496" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1496" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1497" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1497" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1498" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1498" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1499" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1499" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1500" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1500" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1501" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1501" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1502" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1502" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1503" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1503" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1504" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1504" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1505" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1505" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1506" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1506" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1507" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1507" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1508" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1508" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1509" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1509" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1510" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1510" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1511" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1511" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1512" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1512" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1513" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1513" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1514" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1514" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1515" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1515" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1516" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1516" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1517" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1517" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1518" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1518" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1519" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1519" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1520" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1520" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1521" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1521" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1522" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1522" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1523" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1523" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1524" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1524" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1525" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1525" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1526" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1526" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1527" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1527" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1528" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1528" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1529" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1529" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1530" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1530" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1531" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1531" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1532" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1532" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1533" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1533" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1534" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1534" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1535" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1535" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1536" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1536" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1537" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1537" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1538" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1538" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1539" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1539" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1540" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1540" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1541" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1541" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1542" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1542" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1543" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1543" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1544" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1544" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1545" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1545" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1546" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1546" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1547" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1547" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1548" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1548" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1549" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1549" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1550" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1550" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1551" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1551" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1552" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1552" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1553" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1553" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1554" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1554" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1555" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1555" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1556" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1556" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1557" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1557" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="1558" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1558" t="str">
-        <f t="shared" ref="J1558:J1621" si="24">_xlfn.CONCAT(G1558,D1558)</f>
+        <f t="shared" ref="J1558:J1621" si="26">_xlfn.CONCAT(G1558,D1558)</f>
         <v/>
       </c>
     </row>
     <row r="1559" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1559" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1560" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1560" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1561" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1561" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1562" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1562" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1563" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1563" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1564" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1564" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1565" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1565" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1566" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1566" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1567" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1567" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1568" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1568" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1569" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1569" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1570" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1570" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1571" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1571" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1572" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1572" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1573" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1573" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1574" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1574" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1575" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1575" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1576" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1576" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1577" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1577" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1578" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1578" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1579" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1579" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1580" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1580" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1581" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1581" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1582" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1582" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1583" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1583" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1584" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1584" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1585" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1585" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1586" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1586" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1587" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1587" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1588" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1588" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1589" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1589" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1590" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1590" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1591" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1591" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1592" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1592" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1593" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1593" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1594" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1594" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1595" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1595" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1596" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1596" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1597" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1597" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1598" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1598" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1599" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1599" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1600" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1600" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1601" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1601" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1602" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1602" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1603" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1603" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1604" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1604" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1605" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1605" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1606" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1606" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1607" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1607" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1608" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1608" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1609" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1609" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1610" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1610" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1611" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1611" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1612" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1612" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1613" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1613" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1614" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1614" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1615" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1615" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1616" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1616" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1617" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1617" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1618" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1618" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1619" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1619" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1620" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1620" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1621" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1621" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="1622" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1622" t="str">
-        <f t="shared" ref="J1622:J1685" si="25">_xlfn.CONCAT(G1622,D1622)</f>
+        <f t="shared" ref="J1622:J1685" si="27">_xlfn.CONCAT(G1622,D1622)</f>
         <v/>
       </c>
     </row>
     <row r="1623" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1623" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1624" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1624" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1625" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1625" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1626" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1626" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1627" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1627" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1628" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1628" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1629" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1629" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1630" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1630" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1631" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1631" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1632" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1632" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1633" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1633" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1634" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1634" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1635" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1635" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1636" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1636" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1637" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1637" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1638" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1638" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1639" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1639" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1640" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1640" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1641" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1641" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1642" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1642" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1643" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1643" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1644" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1644" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1645" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1645" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1646" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1646" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1647" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1647" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1648" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1648" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1649" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1649" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1650" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1650" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1651" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1651" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1652" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1652" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1653" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1653" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1654" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1654" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1655" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1655" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1656" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1656" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1657" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1657" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1658" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1658" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1659" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1659" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1660" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1660" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1661" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1661" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1662" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1662" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1663" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1663" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1664" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1664" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1665" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1665" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1666" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1666" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1667" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1667" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1668" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1668" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1669" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1669" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1670" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1670" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1671" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1671" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1672" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1672" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1673" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1673" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1674" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1674" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1675" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1675" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1676" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1676" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1677" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1677" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1678" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1678" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1679" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1679" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1680" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1680" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1681" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1681" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1682" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1682" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1683" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1683" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1684" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1684" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1685" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1685" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="1686" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1686" t="str">
-        <f t="shared" ref="J1686:J1736" si="26">_xlfn.CONCAT(G1686,D1686)</f>
+        <f t="shared" ref="J1686:J1736" si="28">_xlfn.CONCAT(G1686,D1686)</f>
         <v/>
       </c>
     </row>
     <row r="1687" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1687" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1688" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1688" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1689" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1689" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1690" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1690" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1691" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1691" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1692" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1692" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1693" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1693" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1694" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1694" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1695" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1695" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1696" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1696" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1697" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1697" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1698" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1698" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1699" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1699" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1700" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1700" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1701" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1701" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1702" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1702" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1703" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1703" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1704" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1704" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1705" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1705" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1706" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1706" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1707" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1707" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1708" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1708" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1709" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1709" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1710" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1710" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1711" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1711" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1712" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1712" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1713" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1713" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1714" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1714" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1715" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1715" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1716" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1716" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1717" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1717" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1718" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1718" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1719" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1719" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1720" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1720" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1721" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1721" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1722" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1722" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1723" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1723" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1724" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1724" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1725" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1725" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1726" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1726" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1727" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1727" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1728" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1728" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1729" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1729" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1730" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1730" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1731" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1731" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1732" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1732" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1733" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1733" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1734" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1734" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1735" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1735" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="1736" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1736" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1117:G1244">
-    <sortCondition ref="E1117:E1244"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1117:M1244">
+    <sortCondition ref="H1117:H1244"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
